--- a/tests/test_files/Analysis with Wills File.xlsx
+++ b/tests/test_files/Analysis with Wills File.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hermans_Desktop1\UK_OneDrive\OneDrive - UW-Madison\Documents\Research\Scripts\KinConOpt\tests\test_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/ukurumbail_wisc_edu/Documents/Documents/Research/Scripts/KinConOpt/tests/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_B372C4B51EA2AF3A31280B319B94696C0D4428A6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D0F0028-3C3E-4621-AE95-9798A53625F8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data In" sheetId="26" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name=".50% O2 V_Ta_SiO2" sheetId="64" r:id="rId3"/>
     <sheet name=".50% O2 40mL" sheetId="93" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -428,12 +429,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.0000000E+00"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1104,7 +1106,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1201,33 +1203,35 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="318">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1547,7 +1551,7 @@
     <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="225"/>
+    <cellStyle name="Normal 2" xfId="225" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2762,7 +2766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -2770,15 +2774,15 @@
       <selection activeCell="C2" sqref="C2:S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -2834,7 +2838,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="75">
         <v>44383.089016203703</v>
       </c>
@@ -2899,23 +2903,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:U2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -2977,7 +2981,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="75">
         <v>44381.956377314818</v>
       </c>
@@ -3048,26 +3052,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:EF69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BD11" sqref="BD11"/>
+    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="BU9" sqref="BU9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="68" max="82" width="11" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="12" bestFit="1" customWidth="1"/>
     <col min="84" max="85" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A1" s="76" t="s">
         <v>121</v>
       </c>
@@ -3135,7 +3140,7 @@
       <c r="BK1" s="71"/>
       <c r="BL1" s="71"/>
       <c r="BM1" s="71"/>
-      <c r="BN1" s="71"/>
+      <c r="BN1" s="104"/>
       <c r="BO1" s="71"/>
       <c r="BP1" s="71"/>
       <c r="BQ1" s="71"/>
@@ -3207,7 +3212,7 @@
       <c r="EE1" s="71"/>
       <c r="EF1" s="71"/>
     </row>
-    <row r="2" spans="1:136" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:136" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>116</v>
       </c>
@@ -3361,8 +3366,8 @@
       <c r="EE2" s="71"/>
       <c r="EF2" s="71"/>
     </row>
-    <row r="3" spans="1:136" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80">
+    <row r="3" spans="1:136" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="101">
         <v>1.4440000000000001E-4</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -3371,98 +3376,98 @@
       <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="82" t="s">
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
       <c r="M3" s="69"/>
-      <c r="N3" s="86" t="s">
+      <c r="N3" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="86"/>
-      <c r="P3" s="86"/>
-      <c r="Q3" s="84" t="s">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="82"/>
-      <c r="AH3" s="88" t="s">
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="AI3" s="88"/>
-      <c r="AJ3" s="88"/>
-      <c r="AK3" s="90" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AL3" s="91" t="e">
-        <v>#REF!</v>
-      </c>
-      <c r="AM3" s="88"/>
-      <c r="AN3" s="88"/>
-      <c r="AO3" s="88"/>
-      <c r="AP3" s="88"/>
-      <c r="AQ3" s="88"/>
-      <c r="AR3" s="88"/>
-      <c r="AS3" s="88"/>
-      <c r="AT3" s="88"/>
-      <c r="AU3" s="88"/>
-      <c r="AV3" s="88"/>
-      <c r="AW3" s="88"/>
-      <c r="AX3" s="96" t="s">
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="94" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AL3" s="95" t="e">
+        <v>#REF!</v>
+      </c>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AP3" s="86"/>
+      <c r="AQ3" s="86"/>
+      <c r="AR3" s="86"/>
+      <c r="AS3" s="86"/>
+      <c r="AT3" s="86"/>
+      <c r="AU3" s="86"/>
+      <c r="AV3" s="86"/>
+      <c r="AW3" s="86"/>
+      <c r="AX3" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="AY3" s="96"/>
-      <c r="AZ3" s="86" t="s">
+      <c r="AY3" s="88"/>
+      <c r="AZ3" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="BA3" s="98"/>
-      <c r="BB3" s="93" t="s">
+      <c r="BA3" s="92"/>
+      <c r="BB3" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="BC3" s="94" t="s">
+      <c r="BC3" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="BD3" s="94" t="s">
+      <c r="BD3" s="85" t="s">
         <v>39</v>
       </c>
       <c r="BE3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BF3" s="95" t="s">
+      <c r="BF3" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="BG3" s="95" t="s">
+      <c r="BG3" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="BH3" s="95" t="s">
+      <c r="BH3" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="BI3" s="101" t="s">
+      <c r="BI3" s="83" t="s">
         <v>44</v>
       </c>
       <c r="BJ3" s="11" t="s">
@@ -3471,519 +3476,519 @@
       <c r="BK3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="BL3" s="100"/>
-      <c r="BM3" s="102" t="s">
+      <c r="BL3" s="82"/>
+      <c r="BM3" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="BN3" s="100"/>
-      <c r="BO3" s="100"/>
-      <c r="BP3" s="100"/>
-      <c r="BQ3" s="100"/>
-      <c r="BR3" s="100"/>
-      <c r="BS3" s="100"/>
-      <c r="BT3" s="95"/>
-      <c r="BU3" s="95" t="s">
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="82"/>
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="82"/>
+      <c r="BR3" s="82"/>
+      <c r="BS3" s="82"/>
+      <c r="BT3" s="80"/>
+      <c r="BU3" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="BV3" s="95" t="s">
+      <c r="BV3" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="BW3" s="95" t="s">
+      <c r="BW3" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="BX3" s="95"/>
-      <c r="BY3" s="95" t="s">
+      <c r="BX3" s="80"/>
+      <c r="BY3" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="BZ3" s="95"/>
-      <c r="CA3" s="95"/>
-      <c r="CB3" s="95"/>
-      <c r="CC3" s="95"/>
-      <c r="CD3" s="95"/>
-      <c r="CE3" s="95"/>
-      <c r="CF3" s="95"/>
-      <c r="CG3" s="95"/>
+      <c r="BZ3" s="80"/>
+      <c r="CA3" s="80"/>
+      <c r="CB3" s="80"/>
+      <c r="CC3" s="80"/>
+      <c r="CD3" s="80"/>
+      <c r="CE3" s="80"/>
+      <c r="CF3" s="80"/>
+      <c r="CG3" s="80"/>
       <c r="CH3" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="CI3" s="102" t="s">
+      <c r="CI3" s="81" t="s">
         <v>57</v>
       </c>
       <c r="CJ3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="CK3" s="95"/>
-      <c r="CL3" s="95"/>
-      <c r="CM3" s="95"/>
-      <c r="CN3" s="95"/>
-      <c r="CO3" s="95"/>
-      <c r="CP3" s="95"/>
-      <c r="CQ3" s="95"/>
-      <c r="CR3" s="95"/>
-      <c r="CS3" s="95"/>
-      <c r="CT3" s="95"/>
-      <c r="CU3" s="95"/>
-      <c r="CV3" s="95"/>
-      <c r="CW3" s="95"/>
-      <c r="CX3" s="95"/>
-      <c r="CY3" s="95"/>
-      <c r="CZ3" s="95"/>
-      <c r="DA3" s="95"/>
-      <c r="DB3" s="95"/>
-      <c r="DC3" s="95"/>
-      <c r="DD3" s="95"/>
-      <c r="DE3" s="95"/>
-      <c r="DF3" s="95"/>
-      <c r="DG3" s="95"/>
-      <c r="DH3" s="95"/>
-      <c r="DI3" s="95"/>
-      <c r="DJ3" s="95"/>
-      <c r="DK3" s="95"/>
-      <c r="DL3" s="95"/>
-      <c r="DM3" s="95"/>
-      <c r="DN3" s="95"/>
-      <c r="DO3" s="95"/>
-      <c r="DP3" s="95"/>
-      <c r="DQ3" s="95"/>
-      <c r="DR3" s="95"/>
-      <c r="DS3" s="95"/>
-      <c r="DT3" s="95"/>
-      <c r="DU3" s="95"/>
-      <c r="DV3" s="95"/>
-      <c r="DW3" s="95"/>
-      <c r="DX3" s="95"/>
-      <c r="DY3" s="95"/>
-      <c r="DZ3" s="95"/>
-      <c r="EA3" s="95"/>
-      <c r="EB3" s="95"/>
-      <c r="EC3" s="95"/>
-      <c r="ED3" s="95"/>
-      <c r="EE3" s="95"/>
-      <c r="EF3" s="95"/>
+      <c r="CK3" s="80"/>
+      <c r="CL3" s="80"/>
+      <c r="CM3" s="80"/>
+      <c r="CN3" s="80"/>
+      <c r="CO3" s="80"/>
+      <c r="CP3" s="80"/>
+      <c r="CQ3" s="80"/>
+      <c r="CR3" s="80"/>
+      <c r="CS3" s="80"/>
+      <c r="CT3" s="80"/>
+      <c r="CU3" s="80"/>
+      <c r="CV3" s="80"/>
+      <c r="CW3" s="80"/>
+      <c r="CX3" s="80"/>
+      <c r="CY3" s="80"/>
+      <c r="CZ3" s="80"/>
+      <c r="DA3" s="80"/>
+      <c r="DB3" s="80"/>
+      <c r="DC3" s="80"/>
+      <c r="DD3" s="80"/>
+      <c r="DE3" s="80"/>
+      <c r="DF3" s="80"/>
+      <c r="DG3" s="80"/>
+      <c r="DH3" s="80"/>
+      <c r="DI3" s="80"/>
+      <c r="DJ3" s="80"/>
+      <c r="DK3" s="80"/>
+      <c r="DL3" s="80"/>
+      <c r="DM3" s="80"/>
+      <c r="DN3" s="80"/>
+      <c r="DO3" s="80"/>
+      <c r="DP3" s="80"/>
+      <c r="DQ3" s="80"/>
+      <c r="DR3" s="80"/>
+      <c r="DS3" s="80"/>
+      <c r="DT3" s="80"/>
+      <c r="DU3" s="80"/>
+      <c r="DV3" s="80"/>
+      <c r="DW3" s="80"/>
+      <c r="DX3" s="80"/>
+      <c r="DY3" s="80"/>
+      <c r="DZ3" s="80"/>
+      <c r="EA3" s="80"/>
+      <c r="EB3" s="80"/>
+      <c r="EC3" s="80"/>
+      <c r="ED3" s="80"/>
+      <c r="EE3" s="80"/>
+      <c r="EF3" s="80"/>
     </row>
-    <row r="4" spans="1:136" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
+    <row r="4" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="A4" s="102"/>
       <c r="B4" s="72" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
       <c r="M4" s="70"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="83"/>
-      <c r="AJ4" s="89"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="89"/>
-      <c r="AR4" s="89"/>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="97"/>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="93"/>
-      <c r="BC4" s="94"/>
-      <c r="BD4" s="94"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
+      <c r="S4" s="98"/>
+      <c r="T4" s="98"/>
+      <c r="U4" s="98"/>
+      <c r="V4" s="98"/>
+      <c r="W4" s="98"/>
+      <c r="X4" s="98"/>
+      <c r="Y4" s="98"/>
+      <c r="Z4" s="98"/>
+      <c r="AA4" s="98"/>
+      <c r="AB4" s="98"/>
+      <c r="AC4" s="98"/>
+      <c r="AD4" s="98"/>
+      <c r="AE4" s="98"/>
+      <c r="AF4" s="98"/>
+      <c r="AG4" s="100"/>
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="94"/>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="87"/>
+      <c r="AR4" s="87"/>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="89"/>
+      <c r="AY4" s="89"/>
+      <c r="AZ4" s="91"/>
+      <c r="BA4" s="93"/>
+      <c r="BB4" s="84"/>
+      <c r="BC4" s="85"/>
+      <c r="BD4" s="85"/>
       <c r="BE4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="BF4" s="95"/>
-      <c r="BG4" s="95"/>
-      <c r="BH4" s="95"/>
-      <c r="BI4" s="101"/>
+      <c r="BF4" s="80"/>
+      <c r="BG4" s="80"/>
+      <c r="BH4" s="80"/>
+      <c r="BI4" s="83"/>
       <c r="BJ4" s="12" t="s">
         <v>46</v>
       </c>
       <c r="BK4" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="BL4" s="100"/>
-      <c r="BM4" s="102"/>
-      <c r="BN4" s="100"/>
-      <c r="BO4" s="100"/>
-      <c r="BP4" s="100"/>
-      <c r="BQ4" s="100"/>
-      <c r="BR4" s="100"/>
-      <c r="BS4" s="100"/>
-      <c r="BT4" s="95"/>
-      <c r="BU4" s="95"/>
-      <c r="BV4" s="95"/>
-      <c r="BW4" s="95"/>
-      <c r="BX4" s="95"/>
-      <c r="BY4" s="95"/>
-      <c r="BZ4" s="95"/>
-      <c r="CA4" s="95"/>
-      <c r="CB4" s="95"/>
-      <c r="CC4" s="95"/>
-      <c r="CD4" s="95"/>
-      <c r="CE4" s="95"/>
-      <c r="CF4" s="95"/>
-      <c r="CG4" s="95"/>
+      <c r="BL4" s="82"/>
+      <c r="BM4" s="81"/>
+      <c r="BN4" s="82"/>
+      <c r="BO4" s="82"/>
+      <c r="BP4" s="82"/>
+      <c r="BQ4" s="82"/>
+      <c r="BR4" s="82"/>
+      <c r="BS4" s="82"/>
+      <c r="BT4" s="80"/>
+      <c r="BU4" s="80"/>
+      <c r="BV4" s="80"/>
+      <c r="BW4" s="80"/>
+      <c r="BX4" s="80"/>
+      <c r="BY4" s="80"/>
+      <c r="BZ4" s="80"/>
+      <c r="CA4" s="80"/>
+      <c r="CB4" s="80"/>
+      <c r="CC4" s="80"/>
+      <c r="CD4" s="80"/>
+      <c r="CE4" s="80"/>
+      <c r="CF4" s="80"/>
+      <c r="CG4" s="80"/>
       <c r="CH4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="CI4" s="102"/>
+      <c r="CI4" s="81"/>
       <c r="CJ4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="CK4" s="95"/>
-      <c r="CL4" s="95"/>
-      <c r="CM4" s="95"/>
-      <c r="CN4" s="95"/>
-      <c r="CO4" s="95"/>
-      <c r="CP4" s="95"/>
-      <c r="CQ4" s="95"/>
-      <c r="CR4" s="95"/>
-      <c r="CS4" s="95"/>
-      <c r="CT4" s="95"/>
-      <c r="CU4" s="95"/>
-      <c r="CV4" s="95"/>
-      <c r="CW4" s="95"/>
-      <c r="CX4" s="95"/>
-      <c r="CY4" s="95"/>
-      <c r="CZ4" s="95"/>
-      <c r="DA4" s="95"/>
-      <c r="DB4" s="95"/>
-      <c r="DC4" s="95"/>
-      <c r="DD4" s="95"/>
-      <c r="DE4" s="95"/>
-      <c r="DF4" s="95"/>
-      <c r="DG4" s="95"/>
-      <c r="DH4" s="95"/>
-      <c r="DI4" s="95"/>
-      <c r="DJ4" s="95"/>
-      <c r="DK4" s="95"/>
-      <c r="DL4" s="95"/>
-      <c r="DM4" s="95"/>
-      <c r="DN4" s="95"/>
-      <c r="DO4" s="95"/>
-      <c r="DP4" s="95"/>
-      <c r="DQ4" s="95"/>
-      <c r="DR4" s="95"/>
-      <c r="DS4" s="95"/>
-      <c r="DT4" s="95"/>
-      <c r="DU4" s="95"/>
-      <c r="DV4" s="95"/>
-      <c r="DW4" s="95"/>
-      <c r="DX4" s="95"/>
-      <c r="DY4" s="95"/>
-      <c r="DZ4" s="95"/>
-      <c r="EA4" s="95"/>
-      <c r="EB4" s="95"/>
-      <c r="EC4" s="95"/>
-      <c r="ED4" s="95"/>
-      <c r="EE4" s="95"/>
-      <c r="EF4" s="95"/>
+      <c r="CK4" s="80"/>
+      <c r="CL4" s="80"/>
+      <c r="CM4" s="80"/>
+      <c r="CN4" s="80"/>
+      <c r="CO4" s="80"/>
+      <c r="CP4" s="80"/>
+      <c r="CQ4" s="80"/>
+      <c r="CR4" s="80"/>
+      <c r="CS4" s="80"/>
+      <c r="CT4" s="80"/>
+      <c r="CU4" s="80"/>
+      <c r="CV4" s="80"/>
+      <c r="CW4" s="80"/>
+      <c r="CX4" s="80"/>
+      <c r="CY4" s="80"/>
+      <c r="CZ4" s="80"/>
+      <c r="DA4" s="80"/>
+      <c r="DB4" s="80"/>
+      <c r="DC4" s="80"/>
+      <c r="DD4" s="80"/>
+      <c r="DE4" s="80"/>
+      <c r="DF4" s="80"/>
+      <c r="DG4" s="80"/>
+      <c r="DH4" s="80"/>
+      <c r="DI4" s="80"/>
+      <c r="DJ4" s="80"/>
+      <c r="DK4" s="80"/>
+      <c r="DL4" s="80"/>
+      <c r="DM4" s="80"/>
+      <c r="DN4" s="80"/>
+      <c r="DO4" s="80"/>
+      <c r="DP4" s="80"/>
+      <c r="DQ4" s="80"/>
+      <c r="DR4" s="80"/>
+      <c r="DS4" s="80"/>
+      <c r="DT4" s="80"/>
+      <c r="DU4" s="80"/>
+      <c r="DV4" s="80"/>
+      <c r="DW4" s="80"/>
+      <c r="DX4" s="80"/>
+      <c r="DY4" s="80"/>
+      <c r="DZ4" s="80"/>
+      <c r="EA4" s="80"/>
+      <c r="EB4" s="80"/>
+      <c r="EC4" s="80"/>
+      <c r="ED4" s="80"/>
+      <c r="EE4" s="80"/>
+      <c r="EF4" s="80"/>
     </row>
-    <row r="5" spans="1:136" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+    <row r="5" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="A5" s="102"/>
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="100"/>
       <c r="M5" s="70"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="83"/>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="90"/>
-      <c r="AL5" s="92"/>
-      <c r="AM5" s="89"/>
-      <c r="AN5" s="89"/>
-      <c r="AO5" s="89"/>
-      <c r="AP5" s="89"/>
-      <c r="AQ5" s="89"/>
-      <c r="AR5" s="89"/>
-      <c r="AS5" s="89"/>
-      <c r="AT5" s="89"/>
-      <c r="AU5" s="89"/>
-      <c r="AV5" s="89"/>
-      <c r="AW5" s="89"/>
-      <c r="AX5" s="97"/>
-      <c r="AY5" s="97"/>
-      <c r="AZ5" s="87"/>
-      <c r="BA5" s="99"/>
-      <c r="BB5" s="93"/>
-      <c r="BC5" s="94"/>
-      <c r="BD5" s="94"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="98"/>
+      <c r="R5" s="98"/>
+      <c r="S5" s="98"/>
+      <c r="T5" s="98"/>
+      <c r="U5" s="98"/>
+      <c r="V5" s="98"/>
+      <c r="W5" s="98"/>
+      <c r="X5" s="98"/>
+      <c r="Y5" s="98"/>
+      <c r="Z5" s="98"/>
+      <c r="AA5" s="98"/>
+      <c r="AB5" s="98"/>
+      <c r="AC5" s="98"/>
+      <c r="AD5" s="98"/>
+      <c r="AE5" s="98"/>
+      <c r="AF5" s="98"/>
+      <c r="AG5" s="100"/>
+      <c r="AJ5" s="87"/>
+      <c r="AK5" s="94"/>
+      <c r="AL5" s="96"/>
+      <c r="AM5" s="87"/>
+      <c r="AN5" s="87"/>
+      <c r="AO5" s="87"/>
+      <c r="AP5" s="87"/>
+      <c r="AQ5" s="87"/>
+      <c r="AR5" s="87"/>
+      <c r="AS5" s="87"/>
+      <c r="AT5" s="87"/>
+      <c r="AU5" s="87"/>
+      <c r="AV5" s="87"/>
+      <c r="AW5" s="87"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="89"/>
+      <c r="AZ5" s="91"/>
+      <c r="BA5" s="93"/>
+      <c r="BB5" s="84"/>
+      <c r="BC5" s="85"/>
+      <c r="BD5" s="85"/>
       <c r="BE5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="BF5" s="95"/>
-      <c r="BG5" s="95"/>
-      <c r="BH5" s="95"/>
-      <c r="BI5" s="101"/>
+      <c r="BF5" s="80"/>
+      <c r="BG5" s="80"/>
+      <c r="BH5" s="80"/>
+      <c r="BI5" s="83"/>
       <c r="BJ5" s="12"/>
       <c r="BK5" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="BL5" s="100"/>
-      <c r="BM5" s="102"/>
-      <c r="BN5" s="100"/>
-      <c r="BO5" s="100"/>
-      <c r="BP5" s="100"/>
-      <c r="BQ5" s="100"/>
-      <c r="BR5" s="100"/>
-      <c r="BS5" s="100"/>
-      <c r="BT5" s="95"/>
-      <c r="BU5" s="95"/>
-      <c r="BV5" s="95"/>
-      <c r="BW5" s="95"/>
-      <c r="BX5" s="95"/>
-      <c r="BY5" s="95"/>
-      <c r="BZ5" s="95"/>
-      <c r="CA5" s="95"/>
-      <c r="CB5" s="95"/>
-      <c r="CC5" s="95"/>
-      <c r="CD5" s="95"/>
-      <c r="CE5" s="95"/>
-      <c r="CF5" s="95"/>
-      <c r="CG5" s="95"/>
+      <c r="BL5" s="82"/>
+      <c r="BM5" s="81"/>
+      <c r="BN5" s="82"/>
+      <c r="BO5" s="82"/>
+      <c r="BP5" s="82"/>
+      <c r="BQ5" s="82"/>
+      <c r="BR5" s="82"/>
+      <c r="BS5" s="82"/>
+      <c r="BT5" s="80"/>
+      <c r="BU5" s="80"/>
+      <c r="BV5" s="80"/>
+      <c r="BW5" s="80"/>
+      <c r="BX5" s="80"/>
+      <c r="BY5" s="80"/>
+      <c r="BZ5" s="80"/>
+      <c r="CA5" s="80"/>
+      <c r="CB5" s="80"/>
+      <c r="CC5" s="80"/>
+      <c r="CD5" s="80"/>
+      <c r="CE5" s="80"/>
+      <c r="CF5" s="80"/>
+      <c r="CG5" s="80"/>
       <c r="CH5" s="73"/>
-      <c r="CI5" s="102"/>
+      <c r="CI5" s="81"/>
       <c r="CJ5" s="13"/>
-      <c r="CK5" s="95"/>
-      <c r="CL5" s="95"/>
-      <c r="CM5" s="95"/>
-      <c r="CN5" s="95"/>
-      <c r="CO5" s="95"/>
-      <c r="CP5" s="95"/>
-      <c r="CQ5" s="95"/>
-      <c r="CR5" s="95"/>
-      <c r="CS5" s="95"/>
-      <c r="CT5" s="95"/>
-      <c r="CU5" s="95"/>
-      <c r="CV5" s="95"/>
-      <c r="CW5" s="95"/>
-      <c r="CX5" s="95"/>
-      <c r="CY5" s="95"/>
-      <c r="CZ5" s="95"/>
-      <c r="DA5" s="95"/>
-      <c r="DB5" s="95"/>
-      <c r="DC5" s="95"/>
-      <c r="DD5" s="95"/>
-      <c r="DE5" s="95"/>
-      <c r="DF5" s="95"/>
-      <c r="DG5" s="95"/>
-      <c r="DH5" s="95"/>
-      <c r="DI5" s="95"/>
-      <c r="DJ5" s="95"/>
-      <c r="DK5" s="95"/>
-      <c r="DL5" s="95"/>
-      <c r="DM5" s="95"/>
-      <c r="DN5" s="95"/>
-      <c r="DO5" s="95"/>
-      <c r="DP5" s="95"/>
-      <c r="DQ5" s="95"/>
-      <c r="DR5" s="95"/>
-      <c r="DS5" s="95"/>
-      <c r="DT5" s="95"/>
-      <c r="DU5" s="95"/>
-      <c r="DV5" s="95"/>
-      <c r="DW5" s="95"/>
-      <c r="DX5" s="95"/>
-      <c r="DY5" s="95"/>
-      <c r="DZ5" s="95"/>
-      <c r="EA5" s="95"/>
-      <c r="EB5" s="95"/>
-      <c r="EC5" s="95"/>
-      <c r="ED5" s="95"/>
-      <c r="EE5" s="95"/>
-      <c r="EF5" s="95"/>
+      <c r="CK5" s="80"/>
+      <c r="CL5" s="80"/>
+      <c r="CM5" s="80"/>
+      <c r="CN5" s="80"/>
+      <c r="CO5" s="80"/>
+      <c r="CP5" s="80"/>
+      <c r="CQ5" s="80"/>
+      <c r="CR5" s="80"/>
+      <c r="CS5" s="80"/>
+      <c r="CT5" s="80"/>
+      <c r="CU5" s="80"/>
+      <c r="CV5" s="80"/>
+      <c r="CW5" s="80"/>
+      <c r="CX5" s="80"/>
+      <c r="CY5" s="80"/>
+      <c r="CZ5" s="80"/>
+      <c r="DA5" s="80"/>
+      <c r="DB5" s="80"/>
+      <c r="DC5" s="80"/>
+      <c r="DD5" s="80"/>
+      <c r="DE5" s="80"/>
+      <c r="DF5" s="80"/>
+      <c r="DG5" s="80"/>
+      <c r="DH5" s="80"/>
+      <c r="DI5" s="80"/>
+      <c r="DJ5" s="80"/>
+      <c r="DK5" s="80"/>
+      <c r="DL5" s="80"/>
+      <c r="DM5" s="80"/>
+      <c r="DN5" s="80"/>
+      <c r="DO5" s="80"/>
+      <c r="DP5" s="80"/>
+      <c r="DQ5" s="80"/>
+      <c r="DR5" s="80"/>
+      <c r="DS5" s="80"/>
+      <c r="DT5" s="80"/>
+      <c r="DU5" s="80"/>
+      <c r="DV5" s="80"/>
+      <c r="DW5" s="80"/>
+      <c r="DX5" s="80"/>
+      <c r="DY5" s="80"/>
+      <c r="DZ5" s="80"/>
+      <c r="EA5" s="80"/>
+      <c r="EB5" s="80"/>
+      <c r="EC5" s="80"/>
+      <c r="ED5" s="80"/>
+      <c r="EE5" s="80"/>
+      <c r="EF5" s="80"/>
     </row>
-    <row r="6" spans="1:136" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
+    <row r="6" spans="1:136" x14ac:dyDescent="0.3">
+      <c r="A6" s="102"/>
       <c r="B6" s="72"/>
       <c r="C6" s="72"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="100"/>
       <c r="M6" s="70"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="83"/>
-      <c r="AJ6" s="89"/>
-      <c r="AK6" s="90"/>
-      <c r="AL6" s="92"/>
-      <c r="AM6" s="89"/>
-      <c r="AN6" s="89"/>
-      <c r="AO6" s="89"/>
-      <c r="AP6" s="89"/>
-      <c r="AQ6" s="89"/>
-      <c r="AR6" s="89"/>
-      <c r="AS6" s="89"/>
-      <c r="AT6" s="89"/>
-      <c r="AU6" s="89"/>
-      <c r="AV6" s="89"/>
-      <c r="AW6" s="89"/>
-      <c r="AX6" s="97"/>
-      <c r="AY6" s="97"/>
-      <c r="AZ6" s="87"/>
-      <c r="BA6" s="99"/>
-      <c r="BB6" s="93"/>
-      <c r="BC6" s="94"/>
-      <c r="BD6" s="94"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="S6" s="98"/>
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="Y6" s="98"/>
+      <c r="Z6" s="98"/>
+      <c r="AA6" s="98"/>
+      <c r="AB6" s="98"/>
+      <c r="AC6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AE6" s="98"/>
+      <c r="AF6" s="98"/>
+      <c r="AG6" s="100"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="94"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="87"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="87"/>
+      <c r="AR6" s="87"/>
+      <c r="AS6" s="87"/>
+      <c r="AT6" s="87"/>
+      <c r="AU6" s="87"/>
+      <c r="AV6" s="87"/>
+      <c r="AW6" s="87"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="91"/>
+      <c r="BA6" s="93"/>
+      <c r="BB6" s="84"/>
+      <c r="BC6" s="85"/>
+      <c r="BD6" s="85"/>
       <c r="BE6" s="10"/>
-      <c r="BF6" s="95"/>
-      <c r="BG6" s="95"/>
-      <c r="BH6" s="95"/>
-      <c r="BI6" s="101"/>
+      <c r="BF6" s="80"/>
+      <c r="BG6" s="80"/>
+      <c r="BH6" s="80"/>
+      <c r="BI6" s="83"/>
       <c r="BJ6" s="12"/>
       <c r="BK6" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="BL6" s="100"/>
-      <c r="BM6" s="102"/>
-      <c r="BN6" s="100"/>
-      <c r="BO6" s="100"/>
-      <c r="BP6" s="100"/>
-      <c r="BQ6" s="100"/>
-      <c r="BR6" s="100"/>
-      <c r="BS6" s="100"/>
-      <c r="BT6" s="95"/>
-      <c r="BU6" s="95"/>
-      <c r="BV6" s="95"/>
-      <c r="BW6" s="95"/>
-      <c r="BX6" s="95"/>
-      <c r="BY6" s="95"/>
-      <c r="BZ6" s="95"/>
-      <c r="CA6" s="95"/>
-      <c r="CB6" s="95"/>
-      <c r="CC6" s="95"/>
-      <c r="CD6" s="95"/>
-      <c r="CE6" s="95"/>
-      <c r="CF6" s="95"/>
-      <c r="CG6" s="95"/>
+      <c r="BL6" s="82"/>
+      <c r="BM6" s="81"/>
+      <c r="BN6" s="82"/>
+      <c r="BO6" s="82"/>
+      <c r="BP6" s="82"/>
+      <c r="BQ6" s="82"/>
+      <c r="BR6" s="82"/>
+      <c r="BS6" s="82"/>
+      <c r="BT6" s="80"/>
+      <c r="BU6" s="80"/>
+      <c r="BV6" s="80"/>
+      <c r="BW6" s="80"/>
+      <c r="BX6" s="80"/>
+      <c r="BY6" s="80"/>
+      <c r="BZ6" s="80"/>
+      <c r="CA6" s="80"/>
+      <c r="CB6" s="80"/>
+      <c r="CC6" s="80"/>
+      <c r="CD6" s="80"/>
+      <c r="CE6" s="80"/>
+      <c r="CF6" s="80"/>
+      <c r="CG6" s="80"/>
       <c r="CH6" s="73"/>
-      <c r="CI6" s="102"/>
+      <c r="CI6" s="81"/>
       <c r="CJ6" s="13"/>
-      <c r="CK6" s="95"/>
-      <c r="CL6" s="95"/>
-      <c r="CM6" s="95"/>
-      <c r="CN6" s="95"/>
-      <c r="CO6" s="95"/>
-      <c r="CP6" s="95"/>
-      <c r="CQ6" s="95"/>
-      <c r="CR6" s="95"/>
-      <c r="CS6" s="95"/>
-      <c r="CT6" s="95"/>
-      <c r="CU6" s="95"/>
-      <c r="CV6" s="95"/>
-      <c r="CW6" s="95"/>
-      <c r="CX6" s="95"/>
-      <c r="CY6" s="95"/>
-      <c r="CZ6" s="95"/>
-      <c r="DA6" s="95"/>
-      <c r="DB6" s="95"/>
-      <c r="DC6" s="95"/>
-      <c r="DD6" s="95"/>
-      <c r="DE6" s="95"/>
-      <c r="DF6" s="95"/>
-      <c r="DG6" s="95"/>
-      <c r="DH6" s="95"/>
-      <c r="DI6" s="95"/>
-      <c r="DJ6" s="95"/>
-      <c r="DK6" s="95"/>
-      <c r="DL6" s="95"/>
-      <c r="DM6" s="95"/>
-      <c r="DN6" s="95"/>
-      <c r="DO6" s="95"/>
-      <c r="DP6" s="95"/>
-      <c r="DQ6" s="95"/>
-      <c r="DR6" s="95"/>
-      <c r="DS6" s="95"/>
-      <c r="DT6" s="95"/>
-      <c r="DU6" s="95"/>
-      <c r="DV6" s="95"/>
-      <c r="DW6" s="95"/>
-      <c r="DX6" s="95"/>
-      <c r="DY6" s="95"/>
-      <c r="DZ6" s="95"/>
-      <c r="EA6" s="95"/>
-      <c r="EB6" s="95"/>
-      <c r="EC6" s="95"/>
-      <c r="ED6" s="95"/>
-      <c r="EE6" s="95"/>
-      <c r="EF6" s="95"/>
+      <c r="CK6" s="80"/>
+      <c r="CL6" s="80"/>
+      <c r="CM6" s="80"/>
+      <c r="CN6" s="80"/>
+      <c r="CO6" s="80"/>
+      <c r="CP6" s="80"/>
+      <c r="CQ6" s="80"/>
+      <c r="CR6" s="80"/>
+      <c r="CS6" s="80"/>
+      <c r="CT6" s="80"/>
+      <c r="CU6" s="80"/>
+      <c r="CV6" s="80"/>
+      <c r="CW6" s="80"/>
+      <c r="CX6" s="80"/>
+      <c r="CY6" s="80"/>
+      <c r="CZ6" s="80"/>
+      <c r="DA6" s="80"/>
+      <c r="DB6" s="80"/>
+      <c r="DC6" s="80"/>
+      <c r="DD6" s="80"/>
+      <c r="DE6" s="80"/>
+      <c r="DF6" s="80"/>
+      <c r="DG6" s="80"/>
+      <c r="DH6" s="80"/>
+      <c r="DI6" s="80"/>
+      <c r="DJ6" s="80"/>
+      <c r="DK6" s="80"/>
+      <c r="DL6" s="80"/>
+      <c r="DM6" s="80"/>
+      <c r="DN6" s="80"/>
+      <c r="DO6" s="80"/>
+      <c r="DP6" s="80"/>
+      <c r="DQ6" s="80"/>
+      <c r="DR6" s="80"/>
+      <c r="DS6" s="80"/>
+      <c r="DT6" s="80"/>
+      <c r="DU6" s="80"/>
+      <c r="DV6" s="80"/>
+      <c r="DW6" s="80"/>
+      <c r="DX6" s="80"/>
+      <c r="DY6" s="80"/>
+      <c r="DZ6" s="80"/>
+      <c r="EA6" s="80"/>
+      <c r="EB6" s="80"/>
+      <c r="EC6" s="80"/>
+      <c r="ED6" s="80"/>
+      <c r="EE6" s="80"/>
+      <c r="EF6" s="80"/>
     </row>
-    <row r="7" spans="1:136" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:136" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>0.02</v>
       </c>
@@ -4269,7 +4274,7 @@
       <c r="EE7" s="71"/>
       <c r="EF7" s="71"/>
     </row>
-    <row r="8" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A8" s="74"/>
       <c r="B8" s="67">
         <v>40</v>
@@ -4409,7 +4414,7 @@
       <c r="EE8" s="31"/>
       <c r="EF8" s="31"/>
     </row>
-    <row r="9" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A9" s="79">
         <v>500</v>
       </c>
@@ -4445,31 +4450,31 @@
         <f ca="1">INDIRECT("'"&amp;$A$1&amp;" " &amp;B9&amp;"mL'!E27")</f>
         <v>428.21</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="32">
         <f ca="1">E9/$D$46*100</f>
-        <v>14.06798230357292</v>
-      </c>
-      <c r="K9" s="5">
+        <v>14.797123466272202</v>
+      </c>
+      <c r="K9" s="32">
         <f ca="1">F9/$D$47*100</f>
-        <v>55.102312953294849</v>
-      </c>
-      <c r="L9" s="5">
+        <v>56.024321604714856</v>
+      </c>
+      <c r="L9" s="32">
         <f ca="1">G9/$D$53*100</f>
         <v>29.880053030647002</v>
       </c>
-      <c r="M9" s="5">
+      <c r="M9" s="32">
         <f ca="1">J9+K9+L9</f>
-        <v>99.05034828751478</v>
-      </c>
-      <c r="N9" s="64">
+        <v>100.70149810163406</v>
+      </c>
+      <c r="N9" s="103">
+        <f ca="1">(K9/100)*B9*($D$63/($D$65*$D$67))/60/D9</f>
+        <v>3.0503308426867243E-7</v>
+      </c>
+      <c r="O9" s="103">
         <f ca="1">(J9/100)*B9*($D$63/($D$65*$D$67))/60/D9</f>
-        <v>7.6595305549131632E-8</v>
-      </c>
-      <c r="O9" s="64">
-        <f ca="1">(K9/100)*B9*($D$63/($D$65*$D$67))/60/D9</f>
-        <v>3.0001306555877392E-7</v>
-      </c>
-      <c r="P9" s="64">
+        <v>8.0565227385841398E-8</v>
+      </c>
+      <c r="P9" s="103">
         <f ca="1">(L9/100)*B9*($D$63/($D$65*$D$67))/60/D9</f>
         <v>1.626865702784825E-7</v>
       </c>
@@ -4543,11 +4548,11 @@
       </c>
       <c r="AH9" s="43">
         <f ca="1">((Q9*AG9)/$D$47)*C9/60/D9</f>
-        <v>4.1897683943159106E-9</v>
+        <v>4.2598743935010936E-9</v>
       </c>
       <c r="AI9" s="43">
         <f ca="1">((R9*AG9)/$D$46)*C9/60/D9</f>
-        <v>2.8934175635319144E-7</v>
+        <v>3.0433829104397195E-7</v>
       </c>
       <c r="AJ9" s="43">
         <f ca="1">(((S9*AG9)-$E$50)/$D$49)*C9/60/D9</f>
@@ -4606,11 +4611,11 @@
       </c>
       <c r="AX9" s="44">
         <f ca="1">P9/N9</f>
-        <v>2.1239757333969784</v>
+        <v>0.53334073800069681</v>
       </c>
       <c r="AY9" s="44">
         <f ca="1">AO9/AH9</f>
-        <v>31.588789576640952</v>
+        <v>31.068923624795172</v>
       </c>
       <c r="AZ9" s="45">
         <f ca="1">(P9-AO9)/P9*100</f>
@@ -4800,7 +4805,7 @@
       <c r="EE9" s="79"/>
       <c r="EF9" s="79"/>
     </row>
-    <row r="10" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A10" s="79">
         <v>500</v>
       </c>
@@ -4836,31 +4841,31 @@
         <f t="shared" ref="I10:I11" ca="1" si="10">INDIRECT("'"&amp;$A$1&amp;" " &amp;B10&amp;"mL'!E27")</f>
         <v>428.21</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="32">
         <f ca="1">E10/$D$46*100</f>
-        <v>14.06798230357292</v>
-      </c>
-      <c r="K10" s="5">
+        <v>14.797123466272202</v>
+      </c>
+      <c r="K10" s="32">
         <f ca="1">F10/$D$47*100</f>
-        <v>55.102312953294849</v>
-      </c>
-      <c r="L10" s="5">
+        <v>56.024321604714856</v>
+      </c>
+      <c r="L10" s="32">
         <f ca="1">G10/$D$53*100</f>
         <v>29.880053030647002</v>
       </c>
-      <c r="M10" s="5">
+      <c r="M10" s="32">
         <f ca="1">J10+K10+L10</f>
-        <v>99.05034828751478</v>
-      </c>
-      <c r="N10" s="64">
-        <f ca="1">(J10/100)*B10*($D$63/($D$65*$D$67))/60/D10</f>
-        <v>7.6595305549131632E-8</v>
-      </c>
-      <c r="O10" s="64">
-        <f ca="1">(K10/100)*B10*($D$63/($D$65*$D$67))/60/D10</f>
-        <v>3.0001306555877392E-7</v>
-      </c>
-      <c r="P10" s="64">
+        <v>100.70149810163406</v>
+      </c>
+      <c r="N10" s="103">
+        <f t="shared" ref="N10:N11" ca="1" si="11">(K10/100)*B10*($D$63/($D$65*$D$67))/60/D10</f>
+        <v>3.0503308426867243E-7</v>
+      </c>
+      <c r="O10" s="103">
+        <f t="shared" ref="O10:O11" ca="1" si="12">(J10/100)*B10*($D$63/($D$65*$D$67))/60/D10</f>
+        <v>8.0565227385841398E-8</v>
+      </c>
+      <c r="P10" s="103">
         <f ca="1">(L10/100)*B10*($D$63/($D$65*$D$67))/60/D10</f>
         <v>1.626865702784825E-7</v>
       </c>
@@ -4929,16 +4934,16 @@
         <v>0</v>
       </c>
       <c r="AG10" s="33">
-        <f t="shared" ref="AG10:AG11" ca="1" si="11">F10/R10</f>
+        <f t="shared" ref="AG10:AG11" ca="1" si="13">F10/R10</f>
         <v>0.91681396540500548</v>
       </c>
       <c r="AH10" s="43">
         <f ca="1">((Q10*AG10)/$D$47)*C10/60/D10</f>
-        <v>4.1897683943159106E-9</v>
+        <v>4.2598743935010936E-9</v>
       </c>
       <c r="AI10" s="43">
         <f ca="1">((R10*AG10)/$D$46)*C10/60/D10</f>
-        <v>2.8934175635319144E-7</v>
+        <v>3.0433829104397195E-7</v>
       </c>
       <c r="AJ10" s="43">
         <f ca="1">(((S10*AG10)-$E$50)/$D$49)*C10/60/D10</f>
@@ -4997,18 +5002,18 @@
       </c>
       <c r="AX10" s="44">
         <f ca="1">P10/N10</f>
-        <v>2.1239757333969784</v>
+        <v>0.53334073800069681</v>
       </c>
       <c r="AY10" s="44">
-        <f t="shared" ref="AY10:AY11" ca="1" si="12">AO10/AH10</f>
-        <v>31.588789576640952</v>
+        <f t="shared" ref="AY10:AY11" ca="1" si="14">AO10/AH10</f>
+        <v>31.068923624795172</v>
       </c>
       <c r="AZ10" s="45">
         <f ca="1">(P10-AO10)/P10*100</f>
         <v>18.647426178845954</v>
       </c>
       <c r="BA10" s="46">
-        <f t="shared" ref="BA10" ca="1" si="13">100*((AJ10+AK10+AL10+2*AM10+2*AN10+3*AP10+4*AQ10+4*AR10+4*AS10+4*AT10+4*AU10+4*AV10+4*AW10)/(3*P10))</f>
+        <f t="shared" ref="BA10" ca="1" si="15">100*((AJ10+AK10+AL10+2*AM10+2*AN10+3*AP10+4*AQ10+4*AR10+4*AS10+4*AT10+4*AU10+4*AV10+4*AW10)/(3*P10))</f>
         <v>17.431647480510399</v>
       </c>
       <c r="BB10" s="68">
@@ -5032,7 +5037,7 @@
         <v>18.835816044528649</v>
       </c>
       <c r="BG10" s="2">
-        <f t="shared" ref="BG10:BG11" ca="1" si="14">(E10-(Q10*AG10))/E10*100</f>
+        <f t="shared" ref="BG10:BG11" ca="1" si="16">(E10-(Q10*AG10))/E10*100</f>
         <v>94.748963152450926</v>
       </c>
       <c r="BH10" s="49">
@@ -5191,7 +5196,7 @@
       <c r="EE10" s="79"/>
       <c r="EF10" s="79"/>
     </row>
-    <row r="11" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A11" s="79">
         <v>500</v>
       </c>
@@ -5227,31 +5232,31 @@
         <f t="shared" ca="1" si="10"/>
         <v>428.21</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="32">
         <f ca="1">E11/$D$46*100</f>
-        <v>14.06798230357292</v>
-      </c>
-      <c r="K11" s="5">
+        <v>14.797123466272202</v>
+      </c>
+      <c r="K11" s="32">
         <f ca="1">F11/$D$47*100</f>
-        <v>55.102312953294849</v>
-      </c>
-      <c r="L11" s="5">
+        <v>56.024321604714856</v>
+      </c>
+      <c r="L11" s="32">
         <f ca="1">G11/$D$53*100</f>
         <v>29.880053030647002</v>
       </c>
-      <c r="M11" s="5">
+      <c r="M11" s="32">
         <f ca="1">J11+K11+L11</f>
-        <v>99.05034828751478</v>
-      </c>
-      <c r="N11" s="64">
-        <f ca="1">(J11/100)*B11*($D$63/($D$65*$D$67))/60/D11</f>
-        <v>7.6595305549131632E-8</v>
-      </c>
-      <c r="O11" s="64">
-        <f ca="1">(K11/100)*B11*($D$63/($D$65*$D$67))/60/D11</f>
-        <v>3.0001306555877392E-7</v>
-      </c>
-      <c r="P11" s="64">
+        <v>100.70149810163406</v>
+      </c>
+      <c r="N11" s="103">
+        <f t="shared" ca="1" si="11"/>
+        <v>3.0503308426867243E-7</v>
+      </c>
+      <c r="O11" s="103">
+        <f t="shared" ca="1" si="12"/>
+        <v>8.0565227385841398E-8</v>
+      </c>
+      <c r="P11" s="103">
         <f ca="1">(L11/100)*B11*($D$63/($D$65*$D$67))/60/D11</f>
         <v>1.626865702784825E-7</v>
       </c>
@@ -5320,16 +5325,16 @@
         <v>0</v>
       </c>
       <c r="AG11" s="33">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0.91681396540500548</v>
       </c>
       <c r="AH11" s="43">
         <f ca="1">((Q11*AG11)/$D$47)*C11/60/D11</f>
-        <v>4.1897683943159106E-9</v>
+        <v>4.2598743935010936E-9</v>
       </c>
       <c r="AI11" s="43">
         <f ca="1">((R11*AG11)/$D$46)*C11/60/D11</f>
-        <v>2.8934175635319144E-7</v>
+        <v>3.0433829104397195E-7</v>
       </c>
       <c r="AJ11" s="43">
         <f ca="1">(((S11*AG11)-$E$50)/$D$49)*C11/60/D11</f>
@@ -5388,11 +5393,11 @@
       </c>
       <c r="AX11" s="44">
         <f ca="1">P11/N11</f>
-        <v>2.1239757333969784</v>
+        <v>0.53334073800069681</v>
       </c>
       <c r="AY11" s="44">
-        <f t="shared" ca="1" si="12"/>
-        <v>31.588789576640952</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>31.068923624795172</v>
       </c>
       <c r="AZ11" s="45">
         <f ca="1">(P11-AO11)/P11*100</f>
@@ -5423,7 +5428,7 @@
         <v>18.835816044528649</v>
       </c>
       <c r="BG11" s="2">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="16"/>
         <v>94.748963152450926</v>
       </c>
       <c r="BH11" s="49">
@@ -5582,7 +5587,7 @@
       <c r="EE11" s="79"/>
       <c r="EF11" s="79"/>
     </row>
-    <row r="12" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A12" s="74"/>
       <c r="B12" s="67">
         <v>60</v>
@@ -5641,147 +5646,147 @@
         <v>18.647426178845954</v>
       </c>
       <c r="BA12" s="60">
-        <f t="shared" ref="BA12:CG12" ca="1" si="15">AVERAGE(BA9:BA11)</f>
+        <f t="shared" ref="BA12:CG12" ca="1" si="17">AVERAGE(BA9:BA11)</f>
         <v>17.431647480510399</v>
       </c>
       <c r="BB12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>9.3936952731050152</v>
       </c>
       <c r="BC12" s="60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>75150</v>
       </c>
       <c r="BD12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>6152.8431268429422</v>
       </c>
       <c r="BE12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1.8599656090342177E-3</v>
       </c>
       <c r="BF12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>18.835816044528649</v>
       </c>
       <c r="BG12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>94.748963152450926</v>
       </c>
       <c r="BH12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1.2277973232429088E-5</v>
       </c>
       <c r="BI12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1.8564295527432779E-3</v>
       </c>
       <c r="BJ12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1.6236999073268179E-7</v>
       </c>
       <c r="BK12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>7.0297893261219066E-8</v>
       </c>
       <c r="BL12" s="60" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1.1648287785355356E-4</v>
       </c>
       <c r="BN12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1.2277973232429088E-5</v>
       </c>
       <c r="BO12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>3.3730083661693042E-5</v>
       </c>
       <c r="BP12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1.2835308588481591E-5</v>
       </c>
       <c r="BQ12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>6.1413327556839339E-7</v>
       </c>
       <c r="BR12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1.1059546584479803E-8</v>
       </c>
       <c r="BS12" s="60" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.3805299956329054</v>
       </c>
       <c r="BU12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>4.8805971083544744E-7</v>
       </c>
       <c r="BV12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>4.8212598483595199E-7</v>
       </c>
       <c r="BW12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1.2157786983355496</v>
       </c>
       <c r="BX12" s="60" t="e">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>43.294880380300185</v>
       </c>
       <c r="BZ12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>39.646606968578176</v>
       </c>
       <c r="CA12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>15.086723176612574</v>
       </c>
       <c r="CB12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>1.4437142135189991</v>
       </c>
       <c r="CC12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>2.5998956959808691E-2</v>
       </c>
       <c r="CD12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.37211010066087291</v>
       </c>
       <c r="CE12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>0.12996620336937151</v>
       </c>
       <c r="CF12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>44.868560797188557</v>
       </c>
       <c r="CG12" s="60">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="17"/>
         <v>100</v>
       </c>
       <c r="CH12" s="60" t="e">
-        <f t="shared" ref="CH12" si="16">AVERAGE(CH9:CH11)</f>
+        <f t="shared" ref="CH12" si="18">AVERAGE(CH9:CH11)</f>
         <v>#REF!</v>
       </c>
       <c r="CI12" s="60" t="e">
-        <f t="shared" ref="CI12" si="17">AVERAGE(CI9:CI11)</f>
+        <f t="shared" ref="CI12" si="19">AVERAGE(CI9:CI11)</f>
         <v>#REF!</v>
       </c>
       <c r="CJ12" s="60">
-        <f t="shared" ref="CJ12" ca="1" si="18">AVERAGE(CJ9:CJ11)</f>
+        <f t="shared" ref="CJ12" ca="1" si="20">AVERAGE(CJ9:CJ11)</f>
         <v>1.2508799129198754E-7</v>
       </c>
       <c r="CK12" s="31"/>
@@ -5833,7 +5838,7 @@
       <c r="EE12" s="31"/>
       <c r="EF12" s="31"/>
     </row>
-    <row r="13" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A13" s="79">
         <v>500</v>
       </c>
@@ -6073,7 +6078,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI13" s="49" t="e">
-        <f t="shared" ref="BI13:BI15" ca="1" si="19">BH13*42*3600/1000</f>
+        <f t="shared" ref="BI13:BI15" ca="1" si="21">BH13*42*3600/1000</f>
         <v>#REF!</v>
       </c>
       <c r="BJ13" s="49" t="e">
@@ -6081,7 +6086,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK13" s="2" t="e">
-        <f t="shared" ref="BK13:BK15" ca="1" si="20">BJ13*(BY13/100)</f>
+        <f t="shared" ref="BK13:BK15" ca="1" si="22">BJ13*(BY13/100)</f>
         <v>#REF!</v>
       </c>
       <c r="BL13" s="50"/>
@@ -6094,11 +6099,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO13" s="52" t="e">
-        <f t="shared" ref="BO13:BO15" ca="1" si="21">AK13*1000</f>
+        <f t="shared" ref="BO13:BO15" ca="1" si="23">AK13*1000</f>
         <v>#REF!</v>
       </c>
       <c r="BP13" s="53" t="e">
-        <f t="shared" ref="BP13:BP15" ca="1" si="22">AL13*1000</f>
+        <f t="shared" ref="BP13:BP15" ca="1" si="24">AL13*1000</f>
         <v>#REF!</v>
       </c>
       <c r="BQ13" s="54" t="e">
@@ -6224,12 +6229,12 @@
       <c r="EE13" s="79"/>
       <c r="EF13" s="79"/>
     </row>
-    <row r="14" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A14" s="79">
         <v>500</v>
       </c>
       <c r="B14" s="79">
-        <f t="shared" ref="B14:B15" si="23">$B$12</f>
+        <f t="shared" ref="B14:B15" si="25">$B$12</f>
         <v>60</v>
       </c>
       <c r="C14" s="66">
@@ -6237,27 +6242,27 @@
         <v>2.4606930694617717E-3</v>
       </c>
       <c r="D14" s="32">
-        <f t="shared" ref="D14:D15" si="24">$D$7</f>
+        <f t="shared" ref="D14:D15" si="26">$D$7</f>
         <v>50.1</v>
       </c>
       <c r="E14" s="77" t="e">
-        <f t="shared" ref="E14:E15" ca="1" si="25">INDIRECT("'"&amp;$A$1&amp;" " &amp;B14&amp;"mL'!A27")</f>
+        <f t="shared" ref="E14:E15" ca="1" si="27">INDIRECT("'"&amp;$A$1&amp;" " &amp;B14&amp;"mL'!A27")</f>
         <v>#REF!</v>
       </c>
       <c r="F14" s="77" t="e">
-        <f t="shared" ref="F14:F15" ca="1" si="26">INDIRECT("'"&amp;$A$1&amp;" " &amp;B14&amp;"mL'!B27")</f>
+        <f t="shared" ref="F14:F15" ca="1" si="28">INDIRECT("'"&amp;$A$1&amp;" " &amp;B14&amp;"mL'!B27")</f>
         <v>#REF!</v>
       </c>
       <c r="G14" s="77" t="e">
-        <f t="shared" ref="G14:G15" ca="1" si="27">INDIRECT("'"&amp;$A$1&amp;" " &amp;B14&amp;"mL'!C27")</f>
+        <f t="shared" ref="G14:G15" ca="1" si="29">INDIRECT("'"&amp;$A$1&amp;" " &amp;B14&amp;"mL'!C27")</f>
         <v>#REF!</v>
       </c>
       <c r="H14" s="77" t="e">
-        <f t="shared" ref="H14:H15" ca="1" si="28">INDIRECT("'"&amp;$A$1&amp;" " &amp;B14&amp;"mL'!D27")</f>
+        <f t="shared" ref="H14:H15" ca="1" si="30">INDIRECT("'"&amp;$A$1&amp;" " &amp;B14&amp;"mL'!D27")</f>
         <v>#REF!</v>
       </c>
       <c r="I14" s="77" t="e">
-        <f t="shared" ref="I14:I15" ca="1" si="29">INDIRECT("'"&amp;$A$1&amp;" " &amp;B14&amp;"mL'!E27")</f>
+        <f t="shared" ref="I14:I15" ca="1" si="31">INDIRECT("'"&amp;$A$1&amp;" " &amp;B14&amp;"mL'!E27")</f>
         <v>#REF!</v>
       </c>
       <c r="J14" s="5" t="e">
@@ -6353,7 +6358,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG14" s="33" t="e">
-        <f t="shared" ref="AG14:AG15" ca="1" si="30">F14/R14</f>
+        <f t="shared" ref="AG14:AG15" ca="1" si="32">F14/R14</f>
         <v>#REF!</v>
       </c>
       <c r="AH14" s="43" t="e">
@@ -6424,7 +6429,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY14" s="44" t="e">
-        <f t="shared" ref="AY14:AY15" ca="1" si="31">AO14/AH14</f>
+        <f t="shared" ref="AY14:AY15" ca="1" si="33">AO14/AH14</f>
         <v>#REF!</v>
       </c>
       <c r="AZ14" s="45" t="e">
@@ -6432,7 +6437,7 @@
         <v>#REF!</v>
       </c>
       <c r="BA14" s="46" t="e">
-        <f t="shared" ref="BA14" ca="1" si="32">100*((AJ14+AK14+AL14+2*AM14+2*AN14+3*AP14+4*AQ14+4*AR14+4*AS14+4*AT14+4*AU14+4*AV14+4*AW14)/(3*P14))</f>
+        <f t="shared" ref="BA14" ca="1" si="34">100*((AJ14+AK14+AL14+2*AM14+2*AN14+3*AP14+4*AQ14+4*AR14+4*AS14+4*AT14+4*AU14+4*AV14+4*AW14)/(3*P14))</f>
         <v>#REF!</v>
       </c>
       <c r="BB14" s="68" t="e">
@@ -6456,7 +6461,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG14" s="2" t="e">
-        <f t="shared" ref="BG14:BG15" ca="1" si="33">(E14-(Q14*AG14))/E14*100</f>
+        <f t="shared" ref="BG14:BG15" ca="1" si="35">(E14-(Q14*AG14))/E14*100</f>
         <v>#REF!</v>
       </c>
       <c r="BH14" s="49" t="e">
@@ -6464,7 +6469,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI14" s="49" t="e">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v>#REF!</v>
       </c>
       <c r="BJ14" s="49" t="e">
@@ -6472,7 +6477,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK14" s="2" t="e">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#REF!</v>
       </c>
       <c r="BL14" s="50"/>
@@ -6485,11 +6490,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO14" s="52" t="e">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v>#REF!</v>
       </c>
       <c r="BP14" s="53" t="e">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="BQ14" s="54" t="e">
@@ -6615,12 +6620,12 @@
       <c r="EE14" s="79"/>
       <c r="EF14" s="79"/>
     </row>
-    <row r="15" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A15" s="79">
         <v>500</v>
       </c>
       <c r="B15" s="79">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>60</v>
       </c>
       <c r="C15" s="66">
@@ -6628,27 +6633,27 @@
         <v>2.4606930694617717E-3</v>
       </c>
       <c r="D15" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>50.1</v>
       </c>
       <c r="E15" s="77" t="e">
-        <f t="shared" ca="1" si="25"/>
+        <f t="shared" ca="1" si="27"/>
         <v>#REF!</v>
       </c>
       <c r="F15" s="77" t="e">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="28"/>
         <v>#REF!</v>
       </c>
       <c r="G15" s="77" t="e">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="29"/>
         <v>#REF!</v>
       </c>
       <c r="H15" s="77" t="e">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="30"/>
         <v>#REF!</v>
       </c>
       <c r="I15" s="77" t="e">
-        <f t="shared" ca="1" si="29"/>
+        <f t="shared" ca="1" si="31"/>
         <v>#REF!</v>
       </c>
       <c r="J15" s="5" t="e">
@@ -6744,7 +6749,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG15" s="33" t="e">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="32"/>
         <v>#REF!</v>
       </c>
       <c r="AH15" s="43" t="e">
@@ -6815,7 +6820,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY15" s="44" t="e">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="33"/>
         <v>#REF!</v>
       </c>
       <c r="AZ15" s="45" t="e">
@@ -6847,7 +6852,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG15" s="2" t="e">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="35"/>
         <v>#REF!</v>
       </c>
       <c r="BH15" s="49" t="e">
@@ -6855,7 +6860,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI15" s="49" t="e">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="21"/>
         <v>#REF!</v>
       </c>
       <c r="BJ15" s="49" t="e">
@@ -6863,7 +6868,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK15" s="2" t="e">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="22"/>
         <v>#REF!</v>
       </c>
       <c r="BL15" s="50"/>
@@ -6876,11 +6881,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO15" s="52" t="e">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="23"/>
         <v>#REF!</v>
       </c>
       <c r="BP15" s="53" t="e">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="24"/>
         <v>#REF!</v>
       </c>
       <c r="BQ15" s="54" t="e">
@@ -7006,7 +7011,7 @@
       <c r="EE15" s="79"/>
       <c r="EF15" s="79"/>
     </row>
-    <row r="16" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A16" s="74"/>
       <c r="B16" s="67">
         <v>80</v>
@@ -7065,147 +7070,147 @@
         <v>#REF!</v>
       </c>
       <c r="BA16" s="60" t="e">
-        <f t="shared" ref="BA16:CJ16" ca="1" si="34">AVERAGE(BA13:BA15)</f>
+        <f t="shared" ref="BA16:CJ16" ca="1" si="36">AVERAGE(BA13:BA15)</f>
         <v>#REF!</v>
       </c>
       <c r="BB16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BC16" s="60">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>50100</v>
       </c>
       <c r="BD16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BE16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BF16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BG16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BH16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BI16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BJ16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BK16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BL16" s="60" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BN16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BO16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BP16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BQ16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BR16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BS16" s="60" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BU16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BV16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BW16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BX16" s="60" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="BZ16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="CA16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="CB16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="CC16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="CD16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="CE16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="CF16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="CG16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="CH16" s="60" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="CI16" s="60" t="e">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="CJ16" s="60" t="e">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="36"/>
         <v>#REF!</v>
       </c>
       <c r="CK16" s="31"/>
@@ -7257,7 +7262,7 @@
       <c r="EE16" s="31"/>
       <c r="EF16" s="31"/>
     </row>
-    <row r="17" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A17" s="71">
         <v>500</v>
       </c>
@@ -7497,7 +7502,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI17" s="49" t="e">
-        <f t="shared" ref="BI17:BI19" ca="1" si="35">BH17*42*3600/1000</f>
+        <f t="shared" ref="BI17:BI19" ca="1" si="37">BH17*42*3600/1000</f>
         <v>#REF!</v>
       </c>
       <c r="BJ17" s="49" t="e">
@@ -7505,7 +7510,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK17" s="2" t="e">
-        <f t="shared" ref="BK17:BK19" ca="1" si="36">BJ17*(BY17/100)</f>
+        <f t="shared" ref="BK17:BK19" ca="1" si="38">BJ17*(BY17/100)</f>
         <v>#REF!</v>
       </c>
       <c r="BL17" s="50"/>
@@ -7518,11 +7523,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO17" s="52" t="e">
-        <f t="shared" ref="BO17:BP19" ca="1" si="37">AK17*1000</f>
+        <f t="shared" ref="BO17:BP19" ca="1" si="39">AK17*1000</f>
         <v>#REF!</v>
       </c>
       <c r="BP17" s="53" t="e">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>#REF!</v>
       </c>
       <c r="BQ17" s="54" t="e">
@@ -7648,12 +7653,12 @@
       <c r="EE17" s="71"/>
       <c r="EF17" s="71"/>
     </row>
-    <row r="18" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A18" s="71">
         <v>500</v>
       </c>
       <c r="B18" s="71">
-        <f t="shared" ref="B18:B19" si="38">$B$16</f>
+        <f t="shared" ref="B18:B19" si="40">$B$16</f>
         <v>80</v>
       </c>
       <c r="C18" s="66">
@@ -7661,27 +7666,27 @@
         <v>3.2809240926156957E-3</v>
       </c>
       <c r="D18" s="32">
-        <f t="shared" ref="D18:D19" si="39">$D$7</f>
+        <f t="shared" ref="D18:D19" si="41">$D$7</f>
         <v>50.1</v>
       </c>
       <c r="E18" s="77" t="e">
-        <f t="shared" ref="E18:E19" ca="1" si="40">INDIRECT("'"&amp;$A$1&amp;" " &amp;B18&amp;"mL'!A27")</f>
+        <f t="shared" ref="E18:E19" ca="1" si="42">INDIRECT("'"&amp;$A$1&amp;" " &amp;B18&amp;"mL'!A27")</f>
         <v>#REF!</v>
       </c>
       <c r="F18" s="77" t="e">
-        <f t="shared" ref="F18:F19" ca="1" si="41">INDIRECT("'"&amp;$A$1&amp;" " &amp;B18&amp;"mL'!B27")</f>
+        <f t="shared" ref="F18:F19" ca="1" si="43">INDIRECT("'"&amp;$A$1&amp;" " &amp;B18&amp;"mL'!B27")</f>
         <v>#REF!</v>
       </c>
       <c r="G18" s="77" t="e">
-        <f t="shared" ref="G18:G19" ca="1" si="42">INDIRECT("'"&amp;$A$1&amp;" " &amp;B18&amp;"mL'!C27")</f>
+        <f t="shared" ref="G18:G19" ca="1" si="44">INDIRECT("'"&amp;$A$1&amp;" " &amp;B18&amp;"mL'!C27")</f>
         <v>#REF!</v>
       </c>
       <c r="H18" s="77" t="e">
-        <f t="shared" ref="H18:H19" ca="1" si="43">INDIRECT("'"&amp;$A$1&amp;" " &amp;B18&amp;"mL'!D27")</f>
+        <f t="shared" ref="H18:H19" ca="1" si="45">INDIRECT("'"&amp;$A$1&amp;" " &amp;B18&amp;"mL'!D27")</f>
         <v>#REF!</v>
       </c>
       <c r="I18" s="77" t="e">
-        <f t="shared" ref="I18:I19" ca="1" si="44">INDIRECT("'"&amp;$A$1&amp;" " &amp;B18&amp;"mL'!E27")</f>
+        <f t="shared" ref="I18:I19" ca="1" si="46">INDIRECT("'"&amp;$A$1&amp;" " &amp;B18&amp;"mL'!E27")</f>
         <v>#REF!</v>
       </c>
       <c r="J18" s="5" t="e">
@@ -7777,7 +7782,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG18" s="33" t="e">
-        <f t="shared" ref="AG18:AG19" ca="1" si="45">F18/R18</f>
+        <f t="shared" ref="AG18:AG19" ca="1" si="47">F18/R18</f>
         <v>#REF!</v>
       </c>
       <c r="AH18" s="43" t="e">
@@ -7848,7 +7853,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY18" s="44" t="e">
-        <f t="shared" ref="AY18:AY19" ca="1" si="46">AO18/AH18</f>
+        <f t="shared" ref="AY18:AY19" ca="1" si="48">AO18/AH18</f>
         <v>#REF!</v>
       </c>
       <c r="AZ18" s="45" t="e">
@@ -7856,7 +7861,7 @@
         <v>#REF!</v>
       </c>
       <c r="BA18" s="46" t="e">
-        <f t="shared" ref="BA18" ca="1" si="47">100*((AJ18+AK18+AL18+2*AM18+2*AN18+3*AP18+4*AQ18+4*AR18+4*AS18+4*AT18+4*AU18+4*AV18+4*AW18)/(3*P18))</f>
+        <f t="shared" ref="BA18" ca="1" si="49">100*((AJ18+AK18+AL18+2*AM18+2*AN18+3*AP18+4*AQ18+4*AR18+4*AS18+4*AT18+4*AU18+4*AV18+4*AW18)/(3*P18))</f>
         <v>#REF!</v>
       </c>
       <c r="BB18" s="68" t="e">
@@ -7880,7 +7885,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG18" s="2" t="e">
-        <f t="shared" ref="BG18:BG19" ca="1" si="48">(E18-(Q18*AG18))/E18*100</f>
+        <f t="shared" ref="BG18:BG19" ca="1" si="50">(E18-(Q18*AG18))/E18*100</f>
         <v>#REF!</v>
       </c>
       <c r="BH18" s="49" t="e">
@@ -7888,7 +7893,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI18" s="49" t="e">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>#REF!</v>
       </c>
       <c r="BJ18" s="49" t="e">
@@ -7896,7 +7901,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK18" s="2" t="e">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>#REF!</v>
       </c>
       <c r="BL18" s="50"/>
@@ -7909,11 +7914,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO18" s="52" t="e">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>#REF!</v>
       </c>
       <c r="BP18" s="53" t="e">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>#REF!</v>
       </c>
       <c r="BQ18" s="54" t="e">
@@ -8039,12 +8044,12 @@
       <c r="EE18" s="71"/>
       <c r="EF18" s="71"/>
     </row>
-    <row r="19" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A19" s="71">
         <v>500</v>
       </c>
       <c r="B19" s="71">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>80</v>
       </c>
       <c r="C19" s="66">
@@ -8052,27 +8057,27 @@
         <v>3.2809240926156957E-3</v>
       </c>
       <c r="D19" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>50.1</v>
       </c>
       <c r="E19" s="77" t="e">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="42"/>
         <v>#REF!</v>
       </c>
       <c r="F19" s="77" t="e">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="43"/>
         <v>#REF!</v>
       </c>
       <c r="G19" s="77" t="e">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="44"/>
         <v>#REF!</v>
       </c>
       <c r="H19" s="77" t="e">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="45"/>
         <v>#REF!</v>
       </c>
       <c r="I19" s="77" t="e">
-        <f t="shared" ca="1" si="44"/>
+        <f t="shared" ca="1" si="46"/>
         <v>#REF!</v>
       </c>
       <c r="J19" s="5" t="e">
@@ -8168,7 +8173,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG19" s="33" t="e">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="47"/>
         <v>#REF!</v>
       </c>
       <c r="AH19" s="43" t="e">
@@ -8239,7 +8244,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY19" s="44" t="e">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="48"/>
         <v>#REF!</v>
       </c>
       <c r="AZ19" s="45" t="e">
@@ -8271,7 +8276,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG19" s="2" t="e">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="50"/>
         <v>#REF!</v>
       </c>
       <c r="BH19" s="49" t="e">
@@ -8279,7 +8284,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI19" s="49" t="e">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="37"/>
         <v>#REF!</v>
       </c>
       <c r="BJ19" s="49" t="e">
@@ -8287,7 +8292,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK19" s="2" t="e">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="38"/>
         <v>#REF!</v>
       </c>
       <c r="BL19" s="50"/>
@@ -8300,11 +8305,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO19" s="52" t="e">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>#REF!</v>
       </c>
       <c r="BP19" s="53" t="e">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="39"/>
         <v>#REF!</v>
       </c>
       <c r="BQ19" s="54" t="e">
@@ -8430,7 +8435,7 @@
       <c r="EE19" s="71"/>
       <c r="EF19" s="71"/>
     </row>
-    <row r="20" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A20" s="67"/>
       <c r="B20" s="67">
         <v>100</v>
@@ -8489,147 +8494,147 @@
         <v>#REF!</v>
       </c>
       <c r="BA20" s="60" t="e">
-        <f t="shared" ref="BA20:CJ20" ca="1" si="49">AVERAGE(BA17:BA19)</f>
+        <f t="shared" ref="BA20:CJ20" ca="1" si="51">AVERAGE(BA17:BA19)</f>
         <v>#REF!</v>
       </c>
       <c r="BB20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BC20" s="60">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>37575</v>
       </c>
       <c r="BD20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BE20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BF20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BG20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BH20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BI20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BJ20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BK20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BL20" s="60" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BN20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BO20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BP20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BQ20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BR20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BS20" s="60" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BU20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BV20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BW20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BX20" s="60" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="BZ20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="CA20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="CB20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="CC20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="CD20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="CE20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="CF20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="CG20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="CH20" s="60" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="CI20" s="60" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="CJ20" s="60" t="e">
-        <f t="shared" ca="1" si="49"/>
+        <f t="shared" ca="1" si="51"/>
         <v>#REF!</v>
       </c>
       <c r="CK20" s="31"/>
@@ -8681,7 +8686,7 @@
       <c r="EE20" s="31"/>
       <c r="EF20" s="31"/>
     </row>
-    <row r="21" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A21" s="71">
         <v>500</v>
       </c>
@@ -8942,11 +8947,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO21" s="52" t="e">
-        <f t="shared" ref="BO21:BP23" ca="1" si="50">AK21*1000</f>
+        <f t="shared" ref="BO21:BP23" ca="1" si="52">AK21*1000</f>
         <v>#REF!</v>
       </c>
       <c r="BP21" s="53" t="e">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>#REF!</v>
       </c>
       <c r="BQ21" s="54" t="e">
@@ -9072,12 +9077,12 @@
       <c r="EE21" s="71"/>
       <c r="EF21" s="71"/>
     </row>
-    <row r="22" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A22" s="71">
         <v>500</v>
       </c>
       <c r="B22" s="71">
-        <f t="shared" ref="B22:B23" si="51">$B$20</f>
+        <f t="shared" ref="B22:B23" si="53">$B$20</f>
         <v>100</v>
       </c>
       <c r="C22" s="66">
@@ -9085,27 +9090,27 @@
         <v>4.10115511576962E-3</v>
       </c>
       <c r="D22" s="32">
-        <f t="shared" ref="D22:D23" si="52">$D$7</f>
+        <f t="shared" ref="D22:D23" si="54">$D$7</f>
         <v>50.1</v>
       </c>
       <c r="E22" s="77" t="e">
-        <f t="shared" ref="E22:E23" ca="1" si="53">INDIRECT("'"&amp;$A$1&amp;" " &amp;B22&amp;"mL'!A27")</f>
+        <f t="shared" ref="E22:E23" ca="1" si="55">INDIRECT("'"&amp;$A$1&amp;" " &amp;B22&amp;"mL'!A27")</f>
         <v>#REF!</v>
       </c>
       <c r="F22" s="77" t="e">
-        <f t="shared" ref="F22:F23" ca="1" si="54">INDIRECT("'"&amp;$A$1&amp;" " &amp;B22&amp;"mL'!B27")</f>
+        <f t="shared" ref="F22:F23" ca="1" si="56">INDIRECT("'"&amp;$A$1&amp;" " &amp;B22&amp;"mL'!B27")</f>
         <v>#REF!</v>
       </c>
       <c r="G22" s="77" t="e">
-        <f t="shared" ref="G22:G23" ca="1" si="55">INDIRECT("'"&amp;$A$1&amp;" " &amp;B22&amp;"mL'!C27")</f>
+        <f t="shared" ref="G22:G23" ca="1" si="57">INDIRECT("'"&amp;$A$1&amp;" " &amp;B22&amp;"mL'!C27")</f>
         <v>#REF!</v>
       </c>
       <c r="H22" s="77" t="e">
-        <f t="shared" ref="H22:H23" ca="1" si="56">INDIRECT("'"&amp;$A$1&amp;" " &amp;B22&amp;"mL'!D27")</f>
+        <f t="shared" ref="H22:H23" ca="1" si="58">INDIRECT("'"&amp;$A$1&amp;" " &amp;B22&amp;"mL'!D27")</f>
         <v>#REF!</v>
       </c>
       <c r="I22" s="77" t="e">
-        <f t="shared" ref="I22:I23" ca="1" si="57">INDIRECT("'"&amp;$A$1&amp;" " &amp;B22&amp;"mL'!E27")</f>
+        <f t="shared" ref="I22:I23" ca="1" si="59">INDIRECT("'"&amp;$A$1&amp;" " &amp;B22&amp;"mL'!E27")</f>
         <v>#REF!</v>
       </c>
       <c r="J22" s="5" t="e">
@@ -9201,7 +9206,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG22" s="33" t="e">
-        <f t="shared" ref="AG22:AG23" ca="1" si="58">F22/R22</f>
+        <f t="shared" ref="AG22:AG23" ca="1" si="60">F22/R22</f>
         <v>#REF!</v>
       </c>
       <c r="AH22" s="43" t="e">
@@ -9272,7 +9277,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY22" s="44" t="e">
-        <f t="shared" ref="AY22:AY23" ca="1" si="59">AO22/AH22</f>
+        <f t="shared" ref="AY22:AY23" ca="1" si="61">AO22/AH22</f>
         <v>#REF!</v>
       </c>
       <c r="AZ22" s="45" t="e">
@@ -9304,7 +9309,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG22" s="2" t="e">
-        <f t="shared" ref="BG22:BG23" ca="1" si="60">(E22-(Q22*AG22))/E22*100</f>
+        <f t="shared" ref="BG22:BG23" ca="1" si="62">(E22-(Q22*AG22))/E22*100</f>
         <v>#REF!</v>
       </c>
       <c r="BH22" s="49" t="e">
@@ -9312,7 +9317,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI22" s="49" t="e">
-        <f t="shared" ref="BI22:BI23" ca="1" si="61">BH22*42*3600/1000</f>
+        <f t="shared" ref="BI22:BI23" ca="1" si="63">BH22*42*3600/1000</f>
         <v>#REF!</v>
       </c>
       <c r="BJ22" s="49" t="e">
@@ -9320,7 +9325,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK22" s="2" t="e">
-        <f t="shared" ref="BK22:BK23" ca="1" si="62">BJ22*(BY22/100)</f>
+        <f t="shared" ref="BK22:BK23" ca="1" si="64">BJ22*(BY22/100)</f>
         <v>#REF!</v>
       </c>
       <c r="BL22" s="50"/>
@@ -9333,11 +9338,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO22" s="52" t="e">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>#REF!</v>
       </c>
       <c r="BP22" s="53" t="e">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>#REF!</v>
       </c>
       <c r="BQ22" s="54" t="e">
@@ -9463,12 +9468,12 @@
       <c r="EE22" s="71"/>
       <c r="EF22" s="71"/>
     </row>
-    <row r="23" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A23" s="71">
         <v>500</v>
       </c>
       <c r="B23" s="71">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>100</v>
       </c>
       <c r="C23" s="66">
@@ -9476,27 +9481,27 @@
         <v>4.10115511576962E-3</v>
       </c>
       <c r="D23" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>50.1</v>
       </c>
       <c r="E23" s="77" t="e">
-        <f t="shared" ca="1" si="53"/>
+        <f t="shared" ca="1" si="55"/>
         <v>#REF!</v>
       </c>
       <c r="F23" s="77" t="e">
-        <f t="shared" ca="1" si="54"/>
+        <f t="shared" ca="1" si="56"/>
         <v>#REF!</v>
       </c>
       <c r="G23" s="77" t="e">
-        <f t="shared" ca="1" si="55"/>
+        <f t="shared" ca="1" si="57"/>
         <v>#REF!</v>
       </c>
       <c r="H23" s="77" t="e">
-        <f t="shared" ca="1" si="56"/>
+        <f t="shared" ca="1" si="58"/>
         <v>#REF!</v>
       </c>
       <c r="I23" s="77" t="e">
-        <f t="shared" ca="1" si="57"/>
+        <f t="shared" ca="1" si="59"/>
         <v>#REF!</v>
       </c>
       <c r="J23" s="5" t="e">
@@ -9592,7 +9597,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG23" s="33" t="e">
-        <f t="shared" ca="1" si="58"/>
+        <f t="shared" ca="1" si="60"/>
         <v>#REF!</v>
       </c>
       <c r="AH23" s="43" t="e">
@@ -9663,7 +9668,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY23" s="44" t="e">
-        <f t="shared" ca="1" si="59"/>
+        <f t="shared" ca="1" si="61"/>
         <v>#REF!</v>
       </c>
       <c r="AZ23" s="45" t="e">
@@ -9695,7 +9700,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG23" s="2" t="e">
-        <f t="shared" ca="1" si="60"/>
+        <f t="shared" ca="1" si="62"/>
         <v>#REF!</v>
       </c>
       <c r="BH23" s="49" t="e">
@@ -9703,7 +9708,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI23" s="49" t="e">
-        <f t="shared" ca="1" si="61"/>
+        <f t="shared" ca="1" si="63"/>
         <v>#REF!</v>
       </c>
       <c r="BJ23" s="49" t="e">
@@ -9711,7 +9716,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK23" s="2" t="e">
-        <f t="shared" ca="1" si="62"/>
+        <f t="shared" ca="1" si="64"/>
         <v>#REF!</v>
       </c>
       <c r="BL23" s="50"/>
@@ -9724,11 +9729,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO23" s="52" t="e">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>#REF!</v>
       </c>
       <c r="BP23" s="53" t="e">
-        <f t="shared" ca="1" si="50"/>
+        <f t="shared" ca="1" si="52"/>
         <v>#REF!</v>
       </c>
       <c r="BQ23" s="54" t="e">
@@ -9854,7 +9859,7 @@
       <c r="EE23" s="71"/>
       <c r="EF23" s="71"/>
     </row>
-    <row r="24" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A24" s="67"/>
       <c r="B24" s="67">
         <v>120</v>
@@ -9913,147 +9918,147 @@
         <v>#REF!</v>
       </c>
       <c r="BA24" s="60" t="e">
-        <f t="shared" ref="BA24:CJ24" ca="1" si="63">AVERAGE(BA21:BA23)</f>
+        <f t="shared" ref="BA24:CJ24" ca="1" si="65">AVERAGE(BA21:BA23)</f>
         <v>#REF!</v>
       </c>
       <c r="BB24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BC24" s="60">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>30060</v>
       </c>
       <c r="BD24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BE24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BF24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BG24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BH24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BI24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BJ24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BK24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BL24" s="60" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BN24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BO24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BP24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BQ24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BR24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BS24" s="60" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BU24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BV24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BW24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BX24" s="60" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="BZ24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="CA24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="CB24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="CC24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="CD24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="CE24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="CF24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="CG24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="CH24" s="60" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="CI24" s="60" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="CJ24" s="60" t="e">
-        <f t="shared" ca="1" si="63"/>
+        <f t="shared" ca="1" si="65"/>
         <v>#REF!</v>
       </c>
       <c r="CK24" s="31"/>
@@ -10105,7 +10110,7 @@
       <c r="EE24" s="31"/>
       <c r="EF24" s="31"/>
     </row>
-    <row r="25" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A25" s="71">
         <v>500</v>
       </c>
@@ -10366,11 +10371,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO25" s="52" t="e">
-        <f t="shared" ref="BO25:BP27" ca="1" si="64">AK25*1000</f>
+        <f t="shared" ref="BO25:BP27" ca="1" si="66">AK25*1000</f>
         <v>#REF!</v>
       </c>
       <c r="BP25" s="53" t="e">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="66"/>
         <v>#REF!</v>
       </c>
       <c r="BQ25" s="54" t="e">
@@ -10496,12 +10501,12 @@
       <c r="EE25" s="71"/>
       <c r="EF25" s="71"/>
     </row>
-    <row r="26" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A26" s="71">
         <v>500</v>
       </c>
       <c r="B26" s="71">
-        <f t="shared" ref="B26:B27" si="65">$B$24</f>
+        <f t="shared" ref="B26:B27" si="67">$B$24</f>
         <v>120</v>
       </c>
       <c r="C26" s="66">
@@ -10509,27 +10514,27 @@
         <v>4.9213861389235435E-3</v>
       </c>
       <c r="D26" s="32">
-        <f t="shared" ref="D26:D27" si="66">$D$7</f>
+        <f t="shared" ref="D26:D27" si="68">$D$7</f>
         <v>50.1</v>
       </c>
       <c r="E26" s="77" t="e">
-        <f t="shared" ref="E26:E27" ca="1" si="67">INDIRECT("'"&amp;$A$1&amp;" " &amp;B26&amp;"mL'!A27")</f>
+        <f t="shared" ref="E26:E27" ca="1" si="69">INDIRECT("'"&amp;$A$1&amp;" " &amp;B26&amp;"mL'!A27")</f>
         <v>#REF!</v>
       </c>
       <c r="F26" s="77" t="e">
-        <f t="shared" ref="F26:F27" ca="1" si="68">INDIRECT("'"&amp;$A$1&amp;" " &amp;B26&amp;"mL'!B27")</f>
+        <f t="shared" ref="F26:F27" ca="1" si="70">INDIRECT("'"&amp;$A$1&amp;" " &amp;B26&amp;"mL'!B27")</f>
         <v>#REF!</v>
       </c>
       <c r="G26" s="77" t="e">
-        <f t="shared" ref="G26:G27" ca="1" si="69">INDIRECT("'"&amp;$A$1&amp;" " &amp;B26&amp;"mL'!C27")</f>
+        <f t="shared" ref="G26:G27" ca="1" si="71">INDIRECT("'"&amp;$A$1&amp;" " &amp;B26&amp;"mL'!C27")</f>
         <v>#REF!</v>
       </c>
       <c r="H26" s="77" t="e">
-        <f t="shared" ref="H26:H27" ca="1" si="70">INDIRECT("'"&amp;$A$1&amp;" " &amp;B26&amp;"mL'!D27")</f>
+        <f t="shared" ref="H26:H27" ca="1" si="72">INDIRECT("'"&amp;$A$1&amp;" " &amp;B26&amp;"mL'!D27")</f>
         <v>#REF!</v>
       </c>
       <c r="I26" s="77" t="e">
-        <f t="shared" ref="I26:I27" ca="1" si="71">INDIRECT("'"&amp;$A$1&amp;" " &amp;B26&amp;"mL'!E27")</f>
+        <f t="shared" ref="I26:I27" ca="1" si="73">INDIRECT("'"&amp;$A$1&amp;" " &amp;B26&amp;"mL'!E27")</f>
         <v>#REF!</v>
       </c>
       <c r="J26" s="5" t="e">
@@ -10625,7 +10630,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG26" s="33" t="e">
-        <f t="shared" ref="AG26:AG27" ca="1" si="72">F26/R26</f>
+        <f t="shared" ref="AG26:AG27" ca="1" si="74">F26/R26</f>
         <v>#REF!</v>
       </c>
       <c r="AH26" s="43" t="e">
@@ -10696,7 +10701,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY26" s="44" t="e">
-        <f t="shared" ref="AY26:AY27" ca="1" si="73">AO26/AH26</f>
+        <f t="shared" ref="AY26:AY27" ca="1" si="75">AO26/AH26</f>
         <v>#REF!</v>
       </c>
       <c r="AZ26" s="45" t="e">
@@ -10728,7 +10733,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG26" s="2" t="e">
-        <f t="shared" ref="BG26:BG27" ca="1" si="74">(E26-(Q26*AG26))/E26*100</f>
+        <f t="shared" ref="BG26:BG27" ca="1" si="76">(E26-(Q26*AG26))/E26*100</f>
         <v>#REF!</v>
       </c>
       <c r="BH26" s="49" t="e">
@@ -10736,7 +10741,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI26" s="49" t="e">
-        <f t="shared" ref="BI26:BI27" ca="1" si="75">BH26*42*3600/1000</f>
+        <f t="shared" ref="BI26:BI27" ca="1" si="77">BH26*42*3600/1000</f>
         <v>#REF!</v>
       </c>
       <c r="BJ26" s="49" t="e">
@@ -10744,7 +10749,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK26" s="2" t="e">
-        <f t="shared" ref="BK26:BK27" ca="1" si="76">BJ26*(BY26/100)</f>
+        <f t="shared" ref="BK26:BK27" ca="1" si="78">BJ26*(BY26/100)</f>
         <v>#REF!</v>
       </c>
       <c r="BL26" s="50"/>
@@ -10757,11 +10762,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO26" s="52" t="e">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="66"/>
         <v>#REF!</v>
       </c>
       <c r="BP26" s="53" t="e">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="66"/>
         <v>#REF!</v>
       </c>
       <c r="BQ26" s="54" t="e">
@@ -10887,12 +10892,12 @@
       <c r="EE26" s="71"/>
       <c r="EF26" s="71"/>
     </row>
-    <row r="27" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A27" s="71">
         <v>500</v>
       </c>
       <c r="B27" s="71">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>120</v>
       </c>
       <c r="C27" s="66">
@@ -10900,27 +10905,27 @@
         <v>4.9213861389235435E-3</v>
       </c>
       <c r="D27" s="32">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>50.1</v>
       </c>
       <c r="E27" s="77" t="e">
-        <f t="shared" ca="1" si="67"/>
+        <f t="shared" ca="1" si="69"/>
         <v>#REF!</v>
       </c>
       <c r="F27" s="77" t="e">
-        <f t="shared" ca="1" si="68"/>
+        <f t="shared" ca="1" si="70"/>
         <v>#REF!</v>
       </c>
       <c r="G27" s="77" t="e">
-        <f t="shared" ca="1" si="69"/>
+        <f t="shared" ca="1" si="71"/>
         <v>#REF!</v>
       </c>
       <c r="H27" s="77" t="e">
-        <f t="shared" ca="1" si="70"/>
+        <f t="shared" ca="1" si="72"/>
         <v>#REF!</v>
       </c>
       <c r="I27" s="77" t="e">
-        <f t="shared" ca="1" si="71"/>
+        <f t="shared" ca="1" si="73"/>
         <v>#REF!</v>
       </c>
       <c r="J27" s="5" t="e">
@@ -11016,7 +11021,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG27" s="33" t="e">
-        <f t="shared" ca="1" si="72"/>
+        <f t="shared" ca="1" si="74"/>
         <v>#REF!</v>
       </c>
       <c r="AH27" s="43" t="e">
@@ -11087,7 +11092,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY27" s="44" t="e">
-        <f t="shared" ca="1" si="73"/>
+        <f t="shared" ca="1" si="75"/>
         <v>#REF!</v>
       </c>
       <c r="AZ27" s="45" t="e">
@@ -11119,7 +11124,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG27" s="2" t="e">
-        <f t="shared" ca="1" si="74"/>
+        <f t="shared" ca="1" si="76"/>
         <v>#REF!</v>
       </c>
       <c r="BH27" s="49" t="e">
@@ -11127,7 +11132,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI27" s="49" t="e">
-        <f t="shared" ca="1" si="75"/>
+        <f t="shared" ca="1" si="77"/>
         <v>#REF!</v>
       </c>
       <c r="BJ27" s="49" t="e">
@@ -11135,7 +11140,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK27" s="2" t="e">
-        <f t="shared" ca="1" si="76"/>
+        <f t="shared" ca="1" si="78"/>
         <v>#REF!</v>
       </c>
       <c r="BL27" s="50"/>
@@ -11148,11 +11153,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO27" s="52" t="e">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="66"/>
         <v>#REF!</v>
       </c>
       <c r="BP27" s="53" t="e">
-        <f t="shared" ca="1" si="64"/>
+        <f t="shared" ca="1" si="66"/>
         <v>#REF!</v>
       </c>
       <c r="BQ27" s="54" t="e">
@@ -11278,7 +11283,7 @@
       <c r="EE27" s="71"/>
       <c r="EF27" s="71"/>
     </row>
-    <row r="28" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A28" s="67"/>
       <c r="B28" s="67">
         <v>140</v>
@@ -11337,147 +11342,147 @@
         <v>#REF!</v>
       </c>
       <c r="BA28" s="60" t="e">
-        <f t="shared" ref="BA28:CJ28" ca="1" si="77">AVERAGE(BA25:BA27)</f>
+        <f t="shared" ref="BA28:CJ28" ca="1" si="79">AVERAGE(BA25:BA27)</f>
         <v>#REF!</v>
       </c>
       <c r="BB28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BC28" s="60">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>25050</v>
       </c>
       <c r="BD28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BE28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BF28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BG28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BH28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BI28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BJ28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BK28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BL28" s="60" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BN28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BO28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BP28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BQ28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BR28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BS28" s="60" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BU28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BV28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BW28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BX28" s="60" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="BZ28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="CA28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="CB28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="CC28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="CD28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="CE28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="CF28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="CG28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="CH28" s="60" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="CI28" s="60" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="CJ28" s="60" t="e">
-        <f t="shared" ca="1" si="77"/>
+        <f t="shared" ca="1" si="79"/>
         <v>#REF!</v>
       </c>
       <c r="CK28" s="71"/>
@@ -11529,7 +11534,7 @@
       <c r="EE28" s="71"/>
       <c r="EF28" s="71"/>
     </row>
-    <row r="29" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A29" s="71">
         <v>500</v>
       </c>
@@ -11790,11 +11795,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO29" s="52" t="e">
-        <f t="shared" ref="BO29:BP31" ca="1" si="78">AK29*1000</f>
+        <f t="shared" ref="BO29:BP31" ca="1" si="80">AK29*1000</f>
         <v>#REF!</v>
       </c>
       <c r="BP29" s="53" t="e">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="80"/>
         <v>#REF!</v>
       </c>
       <c r="BQ29" s="54" t="e">
@@ -11920,12 +11925,12 @@
       <c r="EE29" s="71"/>
       <c r="EF29" s="71"/>
     </row>
-    <row r="30" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A30" s="71">
         <v>500</v>
       </c>
       <c r="B30" s="71">
-        <f t="shared" ref="B30:B31" si="79">$B$28</f>
+        <f t="shared" ref="B30:B31" si="81">$B$28</f>
         <v>140</v>
       </c>
       <c r="C30" s="66">
@@ -11933,27 +11938,27 @@
         <v>5.7416171620774678E-3</v>
       </c>
       <c r="D30" s="32">
-        <f t="shared" ref="D30:D31" si="80">$D$7</f>
+        <f t="shared" ref="D30:D31" si="82">$D$7</f>
         <v>50.1</v>
       </c>
       <c r="E30" s="77" t="e">
-        <f t="shared" ref="E30:E31" ca="1" si="81">INDIRECT("'"&amp;$A$1&amp;" " &amp;B30&amp;"mL'!A27")</f>
+        <f t="shared" ref="E30:E31" ca="1" si="83">INDIRECT("'"&amp;$A$1&amp;" " &amp;B30&amp;"mL'!A27")</f>
         <v>#REF!</v>
       </c>
       <c r="F30" s="77" t="e">
-        <f t="shared" ref="F30:F31" ca="1" si="82">INDIRECT("'"&amp;$A$1&amp;" " &amp;B30&amp;"mL'!B27")</f>
+        <f t="shared" ref="F30:F31" ca="1" si="84">INDIRECT("'"&amp;$A$1&amp;" " &amp;B30&amp;"mL'!B27")</f>
         <v>#REF!</v>
       </c>
       <c r="G30" s="77" t="e">
-        <f t="shared" ref="G30:G31" ca="1" si="83">INDIRECT("'"&amp;$A$1&amp;" " &amp;B30&amp;"mL'!C27")</f>
+        <f t="shared" ref="G30:G31" ca="1" si="85">INDIRECT("'"&amp;$A$1&amp;" " &amp;B30&amp;"mL'!C27")</f>
         <v>#REF!</v>
       </c>
       <c r="H30" s="77" t="e">
-        <f t="shared" ref="H30:H31" ca="1" si="84">INDIRECT("'"&amp;$A$1&amp;" " &amp;B30&amp;"mL'!D27")</f>
+        <f t="shared" ref="H30:H31" ca="1" si="86">INDIRECT("'"&amp;$A$1&amp;" " &amp;B30&amp;"mL'!D27")</f>
         <v>#REF!</v>
       </c>
       <c r="I30" s="77" t="e">
-        <f t="shared" ref="I30:I31" ca="1" si="85">INDIRECT("'"&amp;$A$1&amp;" " &amp;B30&amp;"mL'!E27")</f>
+        <f t="shared" ref="I30:I31" ca="1" si="87">INDIRECT("'"&amp;$A$1&amp;" " &amp;B30&amp;"mL'!E27")</f>
         <v>#REF!</v>
       </c>
       <c r="J30" s="5" t="e">
@@ -12049,7 +12054,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG30" s="33" t="e">
-        <f t="shared" ref="AG30:AG31" ca="1" si="86">F30/R30</f>
+        <f t="shared" ref="AG30:AG31" ca="1" si="88">F30/R30</f>
         <v>#REF!</v>
       </c>
       <c r="AH30" s="43" t="e">
@@ -12120,7 +12125,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY30" s="44" t="e">
-        <f t="shared" ref="AY30:AY31" ca="1" si="87">AO30/AH30</f>
+        <f t="shared" ref="AY30:AY31" ca="1" si="89">AO30/AH30</f>
         <v>#REF!</v>
       </c>
       <c r="AZ30" s="45" t="e">
@@ -12152,7 +12157,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG30" s="2" t="e">
-        <f t="shared" ref="BG30:BG31" ca="1" si="88">(E30-(Q30*AG30))/E30*100</f>
+        <f t="shared" ref="BG30:BG31" ca="1" si="90">(E30-(Q30*AG30))/E30*100</f>
         <v>#REF!</v>
       </c>
       <c r="BH30" s="49" t="e">
@@ -12160,7 +12165,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI30" s="49" t="e">
-        <f t="shared" ref="BI30:BI31" ca="1" si="89">BH30*42*3600/1000</f>
+        <f t="shared" ref="BI30:BI31" ca="1" si="91">BH30*42*3600/1000</f>
         <v>#REF!</v>
       </c>
       <c r="BJ30" s="49" t="e">
@@ -12168,7 +12173,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK30" s="2" t="e">
-        <f t="shared" ref="BK30:BK31" ca="1" si="90">BJ30*(BY30/100)</f>
+        <f t="shared" ref="BK30:BK31" ca="1" si="92">BJ30*(BY30/100)</f>
         <v>#REF!</v>
       </c>
       <c r="BL30" s="50"/>
@@ -12181,11 +12186,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO30" s="52" t="e">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="80"/>
         <v>#REF!</v>
       </c>
       <c r="BP30" s="53" t="e">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="80"/>
         <v>#REF!</v>
       </c>
       <c r="BQ30" s="54" t="e">
@@ -12311,12 +12316,12 @@
       <c r="EE30" s="71"/>
       <c r="EF30" s="71"/>
     </row>
-    <row r="31" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A31" s="71">
         <v>500</v>
       </c>
       <c r="B31" s="71">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>140</v>
       </c>
       <c r="C31" s="66">
@@ -12324,27 +12329,27 @@
         <v>5.7416171620774678E-3</v>
       </c>
       <c r="D31" s="32">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>50.1</v>
       </c>
       <c r="E31" s="77" t="e">
-        <f t="shared" ca="1" si="81"/>
+        <f t="shared" ca="1" si="83"/>
         <v>#REF!</v>
       </c>
       <c r="F31" s="77" t="e">
-        <f t="shared" ca="1" si="82"/>
+        <f t="shared" ca="1" si="84"/>
         <v>#REF!</v>
       </c>
       <c r="G31" s="77" t="e">
-        <f t="shared" ca="1" si="83"/>
+        <f t="shared" ca="1" si="85"/>
         <v>#REF!</v>
       </c>
       <c r="H31" s="77" t="e">
-        <f t="shared" ca="1" si="84"/>
+        <f t="shared" ca="1" si="86"/>
         <v>#REF!</v>
       </c>
       <c r="I31" s="77" t="e">
-        <f t="shared" ca="1" si="85"/>
+        <f t="shared" ca="1" si="87"/>
         <v>#REF!</v>
       </c>
       <c r="J31" s="5" t="e">
@@ -12440,7 +12445,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG31" s="33" t="e">
-        <f t="shared" ca="1" si="86"/>
+        <f t="shared" ca="1" si="88"/>
         <v>#REF!</v>
       </c>
       <c r="AH31" s="43" t="e">
@@ -12511,7 +12516,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY31" s="44" t="e">
-        <f t="shared" ca="1" si="87"/>
+        <f t="shared" ca="1" si="89"/>
         <v>#REF!</v>
       </c>
       <c r="AZ31" s="45" t="e">
@@ -12543,7 +12548,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG31" s="2" t="e">
-        <f t="shared" ca="1" si="88"/>
+        <f t="shared" ca="1" si="90"/>
         <v>#REF!</v>
       </c>
       <c r="BH31" s="49" t="e">
@@ -12551,7 +12556,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI31" s="49" t="e">
-        <f t="shared" ca="1" si="89"/>
+        <f t="shared" ca="1" si="91"/>
         <v>#REF!</v>
       </c>
       <c r="BJ31" s="49" t="e">
@@ -12559,7 +12564,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK31" s="2" t="e">
-        <f t="shared" ca="1" si="90"/>
+        <f t="shared" ca="1" si="92"/>
         <v>#REF!</v>
       </c>
       <c r="BL31" s="50"/>
@@ -12572,11 +12577,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO31" s="52" t="e">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="80"/>
         <v>#REF!</v>
       </c>
       <c r="BP31" s="53" t="e">
-        <f t="shared" ca="1" si="78"/>
+        <f t="shared" ca="1" si="80"/>
         <v>#REF!</v>
       </c>
       <c r="BQ31" s="54" t="e">
@@ -12702,7 +12707,7 @@
       <c r="EE31" s="71"/>
       <c r="EF31" s="71"/>
     </row>
-    <row r="32" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A32" s="67"/>
       <c r="B32" s="67">
         <v>160</v>
@@ -12761,147 +12766,147 @@
         <v>#REF!</v>
       </c>
       <c r="BA32" s="60" t="e">
-        <f t="shared" ref="BA32:CJ32" ca="1" si="91">AVERAGE(BA29:BA31)</f>
+        <f t="shared" ref="BA32:CJ32" ca="1" si="93">AVERAGE(BA29:BA31)</f>
         <v>#REF!</v>
       </c>
       <c r="BB32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BC32" s="60">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>21471.428571428569</v>
       </c>
       <c r="BD32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BE32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BF32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BG32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BH32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BI32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BJ32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BK32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BL32" s="60" t="e">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BN32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BO32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BP32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BQ32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BR32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BS32" s="60" t="e">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BU32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BV32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BW32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BX32" s="60" t="e">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="BZ32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="CA32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="CB32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="CC32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="CD32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="CE32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="CF32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="CG32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="CH32" s="60" t="e">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="CI32" s="60" t="e">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="CJ32" s="60" t="e">
-        <f t="shared" ca="1" si="91"/>
+        <f t="shared" ca="1" si="93"/>
         <v>#REF!</v>
       </c>
       <c r="CK32" s="79"/>
@@ -12953,7 +12958,7 @@
       <c r="EE32" s="79"/>
       <c r="EF32" s="79"/>
     </row>
-    <row r="33" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A33" s="79">
         <v>500</v>
       </c>
@@ -13214,11 +13219,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO33" s="52" t="e">
-        <f t="shared" ref="BO33:BO35" ca="1" si="92">AK33*1000</f>
+        <f t="shared" ref="BO33:BO35" ca="1" si="94">AK33*1000</f>
         <v>#REF!</v>
       </c>
       <c r="BP33" s="53" t="e">
-        <f t="shared" ref="BP33:BP35" ca="1" si="93">AL33*1000</f>
+        <f t="shared" ref="BP33:BP35" ca="1" si="95">AL33*1000</f>
         <v>#REF!</v>
       </c>
       <c r="BQ33" s="54" t="e">
@@ -13344,12 +13349,12 @@
       <c r="EE33" s="79"/>
       <c r="EF33" s="79"/>
     </row>
-    <row r="34" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A34" s="79">
         <v>500</v>
       </c>
       <c r="B34" s="79">
-        <f t="shared" ref="B34:B35" si="94">$B$32</f>
+        <f t="shared" ref="B34:B35" si="96">$B$32</f>
         <v>160</v>
       </c>
       <c r="C34" s="66">
@@ -13357,27 +13362,27 @@
         <v>6.5618481852313913E-3</v>
       </c>
       <c r="D34" s="32">
-        <f t="shared" ref="D34:D35" si="95">$D$7</f>
+        <f t="shared" ref="D34:D35" si="97">$D$7</f>
         <v>50.1</v>
       </c>
       <c r="E34" s="77" t="e">
-        <f t="shared" ref="E34:E35" ca="1" si="96">INDIRECT("'"&amp;$A$1&amp;" " &amp;B34&amp;"mL'!A27")</f>
+        <f t="shared" ref="E34:E35" ca="1" si="98">INDIRECT("'"&amp;$A$1&amp;" " &amp;B34&amp;"mL'!A27")</f>
         <v>#REF!</v>
       </c>
       <c r="F34" s="77" t="e">
-        <f t="shared" ref="F34:F35" ca="1" si="97">INDIRECT("'"&amp;$A$1&amp;" " &amp;B34&amp;"mL'!B27")</f>
+        <f t="shared" ref="F34:F35" ca="1" si="99">INDIRECT("'"&amp;$A$1&amp;" " &amp;B34&amp;"mL'!B27")</f>
         <v>#REF!</v>
       </c>
       <c r="G34" s="77" t="e">
-        <f t="shared" ref="G34:G35" ca="1" si="98">INDIRECT("'"&amp;$A$1&amp;" " &amp;B34&amp;"mL'!C27")</f>
+        <f t="shared" ref="G34:G35" ca="1" si="100">INDIRECT("'"&amp;$A$1&amp;" " &amp;B34&amp;"mL'!C27")</f>
         <v>#REF!</v>
       </c>
       <c r="H34" s="77" t="e">
-        <f t="shared" ref="H34:H35" ca="1" si="99">INDIRECT("'"&amp;$A$1&amp;" " &amp;B34&amp;"mL'!D27")</f>
+        <f t="shared" ref="H34:H35" ca="1" si="101">INDIRECT("'"&amp;$A$1&amp;" " &amp;B34&amp;"mL'!D27")</f>
         <v>#REF!</v>
       </c>
       <c r="I34" s="77" t="e">
-        <f t="shared" ref="I34:I35" ca="1" si="100">INDIRECT("'"&amp;$A$1&amp;" " &amp;B34&amp;"mL'!E27")</f>
+        <f t="shared" ref="I34:I35" ca="1" si="102">INDIRECT("'"&amp;$A$1&amp;" " &amp;B34&amp;"mL'!E27")</f>
         <v>#REF!</v>
       </c>
       <c r="J34" s="5" t="e">
@@ -13473,7 +13478,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG34" s="33" t="e">
-        <f t="shared" ref="AG34:AG35" ca="1" si="101">F34/R34</f>
+        <f t="shared" ref="AG34:AG35" ca="1" si="103">F34/R34</f>
         <v>#REF!</v>
       </c>
       <c r="AH34" s="43" t="e">
@@ -13544,7 +13549,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY34" s="44" t="e">
-        <f t="shared" ref="AY34:AY35" ca="1" si="102">AO34/AH34</f>
+        <f t="shared" ref="AY34:AY35" ca="1" si="104">AO34/AH34</f>
         <v>#REF!</v>
       </c>
       <c r="AZ34" s="45" t="e">
@@ -13576,7 +13581,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG34" s="2" t="e">
-        <f t="shared" ref="BG34:BG35" ca="1" si="103">(E34-(Q34*AG34))/E34*100</f>
+        <f t="shared" ref="BG34:BG35" ca="1" si="105">(E34-(Q34*AG34))/E34*100</f>
         <v>#REF!</v>
       </c>
       <c r="BH34" s="49" t="e">
@@ -13584,7 +13589,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI34" s="49" t="e">
-        <f t="shared" ref="BI34:BI35" ca="1" si="104">BH34*42*3600/1000</f>
+        <f t="shared" ref="BI34:BI35" ca="1" si="106">BH34*42*3600/1000</f>
         <v>#REF!</v>
       </c>
       <c r="BJ34" s="49" t="e">
@@ -13592,7 +13597,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK34" s="2" t="e">
-        <f t="shared" ref="BK34:BK35" ca="1" si="105">BJ34*(BY34/100)</f>
+        <f t="shared" ref="BK34:BK35" ca="1" si="107">BJ34*(BY34/100)</f>
         <v>#REF!</v>
       </c>
       <c r="BL34" s="50"/>
@@ -13605,11 +13610,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO34" s="52" t="e">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="94"/>
         <v>#REF!</v>
       </c>
       <c r="BP34" s="53" t="e">
-        <f t="shared" ca="1" si="93"/>
+        <f t="shared" ca="1" si="95"/>
         <v>#REF!</v>
       </c>
       <c r="BQ34" s="54" t="e">
@@ -13735,12 +13740,12 @@
       <c r="EE34" s="79"/>
       <c r="EF34" s="79"/>
     </row>
-    <row r="35" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A35" s="79">
         <v>500</v>
       </c>
       <c r="B35" s="79">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>160</v>
       </c>
       <c r="C35" s="66">
@@ -13748,27 +13753,27 @@
         <v>6.5618481852313913E-3</v>
       </c>
       <c r="D35" s="32">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>50.1</v>
       </c>
       <c r="E35" s="77" t="e">
-        <f t="shared" ca="1" si="96"/>
+        <f t="shared" ca="1" si="98"/>
         <v>#REF!</v>
       </c>
       <c r="F35" s="77" t="e">
-        <f t="shared" ca="1" si="97"/>
+        <f t="shared" ca="1" si="99"/>
         <v>#REF!</v>
       </c>
       <c r="G35" s="77" t="e">
-        <f t="shared" ca="1" si="98"/>
+        <f t="shared" ca="1" si="100"/>
         <v>#REF!</v>
       </c>
       <c r="H35" s="77" t="e">
-        <f t="shared" ca="1" si="99"/>
+        <f t="shared" ca="1" si="101"/>
         <v>#REF!</v>
       </c>
       <c r="I35" s="77" t="e">
-        <f t="shared" ca="1" si="100"/>
+        <f t="shared" ca="1" si="102"/>
         <v>#REF!</v>
       </c>
       <c r="J35" s="5" t="e">
@@ -13864,7 +13869,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG35" s="33" t="e">
-        <f t="shared" ca="1" si="101"/>
+        <f t="shared" ca="1" si="103"/>
         <v>#REF!</v>
       </c>
       <c r="AH35" s="43" t="e">
@@ -13935,7 +13940,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY35" s="44" t="e">
-        <f t="shared" ca="1" si="102"/>
+        <f t="shared" ca="1" si="104"/>
         <v>#REF!</v>
       </c>
       <c r="AZ35" s="45" t="e">
@@ -13967,7 +13972,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG35" s="2" t="e">
-        <f t="shared" ca="1" si="103"/>
+        <f t="shared" ca="1" si="105"/>
         <v>#REF!</v>
       </c>
       <c r="BH35" s="49" t="e">
@@ -13975,7 +13980,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI35" s="49" t="e">
-        <f t="shared" ca="1" si="104"/>
+        <f t="shared" ca="1" si="106"/>
         <v>#REF!</v>
       </c>
       <c r="BJ35" s="49" t="e">
@@ -13983,7 +13988,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK35" s="2" t="e">
-        <f t="shared" ca="1" si="105"/>
+        <f t="shared" ca="1" si="107"/>
         <v>#REF!</v>
       </c>
       <c r="BL35" s="50"/>
@@ -13996,11 +14001,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO35" s="52" t="e">
-        <f t="shared" ca="1" si="92"/>
+        <f t="shared" ca="1" si="94"/>
         <v>#REF!</v>
       </c>
       <c r="BP35" s="53" t="e">
-        <f t="shared" ca="1" si="93"/>
+        <f t="shared" ca="1" si="95"/>
         <v>#REF!</v>
       </c>
       <c r="BQ35" s="54" t="e">
@@ -14126,7 +14131,7 @@
       <c r="EE35" s="79"/>
       <c r="EF35" s="79"/>
     </row>
-    <row r="36" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A36" s="67"/>
       <c r="B36" s="67">
         <v>180</v>
@@ -14185,15 +14190,15 @@
         <v>#REF!</v>
       </c>
       <c r="BA36" s="60" t="e">
-        <f t="shared" ref="BA36:CJ36" ca="1" si="106">AVERAGE(BA33:BA35)</f>
+        <f t="shared" ref="BA36:CJ36" ca="1" si="108">AVERAGE(BA33:BA35)</f>
         <v>#REF!</v>
       </c>
       <c r="BB36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BC36" s="60">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>18787.5</v>
       </c>
       <c r="BD36" s="60" t="e">
@@ -14201,131 +14206,131 @@
         <v>#REF!</v>
       </c>
       <c r="BE36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BF36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BG36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BH36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BI36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BJ36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BK36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BL36" s="60" t="e">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BN36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BO36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BP36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BQ36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BR36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BS36" s="60" t="e">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BU36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BV36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BW36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BX36" s="60" t="e">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="BZ36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="CA36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="CB36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="CC36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="CD36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="CE36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="CF36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="CG36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="CH36" s="60" t="e">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="CI36" s="60" t="e">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="CJ36" s="60" t="e">
-        <f t="shared" ca="1" si="106"/>
+        <f t="shared" ca="1" si="108"/>
         <v>#REF!</v>
       </c>
       <c r="CK36" s="79"/>
@@ -14377,7 +14382,7 @@
       <c r="EE36" s="79"/>
       <c r="EF36" s="79"/>
     </row>
-    <row r="37" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A37" s="79">
         <v>500</v>
       </c>
@@ -14638,11 +14643,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO37" s="52" t="e">
-        <f t="shared" ref="BO37:BO39" ca="1" si="107">AK37*1000</f>
+        <f t="shared" ref="BO37:BO39" ca="1" si="109">AK37*1000</f>
         <v>#REF!</v>
       </c>
       <c r="BP37" s="53" t="e">
-        <f t="shared" ref="BP37:BP39" ca="1" si="108">AL37*1000</f>
+        <f t="shared" ref="BP37:BP39" ca="1" si="110">AL37*1000</f>
         <v>#REF!</v>
       </c>
       <c r="BQ37" s="54" t="e">
@@ -14768,12 +14773,12 @@
       <c r="EE37" s="79"/>
       <c r="EF37" s="79"/>
     </row>
-    <row r="38" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A38" s="79">
         <v>500</v>
       </c>
       <c r="B38" s="79">
-        <f t="shared" ref="B38:B39" si="109">$B$36</f>
+        <f t="shared" ref="B38:B39" si="111">$B$36</f>
         <v>180</v>
       </c>
       <c r="C38" s="66">
@@ -14781,27 +14786,27 @@
         <v>7.3820792083853148E-3</v>
       </c>
       <c r="D38" s="32">
-        <f t="shared" ref="D38:D39" si="110">$D$7</f>
+        <f t="shared" ref="D38:D39" si="112">$D$7</f>
         <v>50.1</v>
       </c>
       <c r="E38" s="77" t="e">
-        <f t="shared" ref="E38:E39" ca="1" si="111">INDIRECT("'"&amp;$A$1&amp;" " &amp;B38&amp;"mL'!A27")</f>
+        <f t="shared" ref="E38:E39" ca="1" si="113">INDIRECT("'"&amp;$A$1&amp;" " &amp;B38&amp;"mL'!A27")</f>
         <v>#REF!</v>
       </c>
       <c r="F38" s="77" t="e">
-        <f t="shared" ref="F38:F39" ca="1" si="112">INDIRECT("'"&amp;$A$1&amp;" " &amp;B38&amp;"mL'!B27")</f>
+        <f t="shared" ref="F38:F39" ca="1" si="114">INDIRECT("'"&amp;$A$1&amp;" " &amp;B38&amp;"mL'!B27")</f>
         <v>#REF!</v>
       </c>
       <c r="G38" s="77" t="e">
-        <f t="shared" ref="G38:G39" ca="1" si="113">INDIRECT("'"&amp;$A$1&amp;" " &amp;B38&amp;"mL'!C27")</f>
+        <f t="shared" ref="G38:G39" ca="1" si="115">INDIRECT("'"&amp;$A$1&amp;" " &amp;B38&amp;"mL'!C27")</f>
         <v>#REF!</v>
       </c>
       <c r="H38" s="77" t="e">
-        <f t="shared" ref="H38:H39" ca="1" si="114">INDIRECT("'"&amp;$A$1&amp;" " &amp;B38&amp;"mL'!D27")</f>
+        <f t="shared" ref="H38:H39" ca="1" si="116">INDIRECT("'"&amp;$A$1&amp;" " &amp;B38&amp;"mL'!D27")</f>
         <v>#REF!</v>
       </c>
       <c r="I38" s="77" t="e">
-        <f t="shared" ref="I38:I39" ca="1" si="115">INDIRECT("'"&amp;$A$1&amp;" " &amp;B38&amp;"mL'!E27")</f>
+        <f t="shared" ref="I38:I39" ca="1" si="117">INDIRECT("'"&amp;$A$1&amp;" " &amp;B38&amp;"mL'!E27")</f>
         <v>#REF!</v>
       </c>
       <c r="J38" s="5" t="e">
@@ -14897,7 +14902,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG38" s="33" t="e">
-        <f t="shared" ref="AG38:AG39" ca="1" si="116">F38/R38</f>
+        <f t="shared" ref="AG38:AG39" ca="1" si="118">F38/R38</f>
         <v>#REF!</v>
       </c>
       <c r="AH38" s="43" t="e">
@@ -14968,7 +14973,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY38" s="44" t="e">
-        <f t="shared" ref="AY38:AY39" ca="1" si="117">AO38/AH38</f>
+        <f t="shared" ref="AY38:AY39" ca="1" si="119">AO38/AH38</f>
         <v>#REF!</v>
       </c>
       <c r="AZ38" s="45" t="e">
@@ -15000,7 +15005,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG38" s="2" t="e">
-        <f t="shared" ref="BG38:BG39" ca="1" si="118">(E38-(Q38*AG38))/E38*100</f>
+        <f t="shared" ref="BG38:BG39" ca="1" si="120">(E38-(Q38*AG38))/E38*100</f>
         <v>#REF!</v>
       </c>
       <c r="BH38" s="49" t="e">
@@ -15008,7 +15013,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI38" s="49" t="e">
-        <f t="shared" ref="BI38:BI39" ca="1" si="119">BH38*42*3600/1000</f>
+        <f t="shared" ref="BI38:BI39" ca="1" si="121">BH38*42*3600/1000</f>
         <v>#REF!</v>
       </c>
       <c r="BJ38" s="49" t="e">
@@ -15016,7 +15021,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK38" s="2" t="e">
-        <f t="shared" ref="BK38:BK39" ca="1" si="120">BJ38*(BY38/100)</f>
+        <f t="shared" ref="BK38:BK39" ca="1" si="122">BJ38*(BY38/100)</f>
         <v>#REF!</v>
       </c>
       <c r="BL38" s="50"/>
@@ -15029,11 +15034,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO38" s="52" t="e">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="109"/>
         <v>#REF!</v>
       </c>
       <c r="BP38" s="53" t="e">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="110"/>
         <v>#REF!</v>
       </c>
       <c r="BQ38" s="54" t="e">
@@ -15159,12 +15164,12 @@
       <c r="EE38" s="79"/>
       <c r="EF38" s="79"/>
     </row>
-    <row r="39" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A39" s="79">
         <v>500</v>
       </c>
       <c r="B39" s="79">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>180</v>
       </c>
       <c r="C39" s="66">
@@ -15172,27 +15177,27 @@
         <v>7.3820792083853148E-3</v>
       </c>
       <c r="D39" s="32">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>50.1</v>
       </c>
       <c r="E39" s="77" t="e">
-        <f t="shared" ca="1" si="111"/>
+        <f t="shared" ca="1" si="113"/>
         <v>#REF!</v>
       </c>
       <c r="F39" s="77" t="e">
-        <f t="shared" ca="1" si="112"/>
+        <f t="shared" ca="1" si="114"/>
         <v>#REF!</v>
       </c>
       <c r="G39" s="77" t="e">
-        <f t="shared" ca="1" si="113"/>
+        <f t="shared" ca="1" si="115"/>
         <v>#REF!</v>
       </c>
       <c r="H39" s="77" t="e">
-        <f t="shared" ca="1" si="114"/>
+        <f t="shared" ca="1" si="116"/>
         <v>#REF!</v>
       </c>
       <c r="I39" s="77" t="e">
-        <f t="shared" ca="1" si="115"/>
+        <f t="shared" ca="1" si="117"/>
         <v>#REF!</v>
       </c>
       <c r="J39" s="5" t="e">
@@ -15288,7 +15293,7 @@
         <v>#REF!</v>
       </c>
       <c r="AG39" s="33" t="e">
-        <f t="shared" ca="1" si="116"/>
+        <f t="shared" ca="1" si="118"/>
         <v>#REF!</v>
       </c>
       <c r="AH39" s="43" t="e">
@@ -15359,7 +15364,7 @@
         <v>#REF!</v>
       </c>
       <c r="AY39" s="44" t="e">
-        <f t="shared" ca="1" si="117"/>
+        <f t="shared" ca="1" si="119"/>
         <v>#REF!</v>
       </c>
       <c r="AZ39" s="45" t="e">
@@ -15391,7 +15396,7 @@
         <v>#REF!</v>
       </c>
       <c r="BG39" s="2" t="e">
-        <f t="shared" ca="1" si="118"/>
+        <f t="shared" ca="1" si="120"/>
         <v>#REF!</v>
       </c>
       <c r="BH39" s="49" t="e">
@@ -15399,7 +15404,7 @@
         <v>#REF!</v>
       </c>
       <c r="BI39" s="49" t="e">
-        <f t="shared" ca="1" si="119"/>
+        <f t="shared" ca="1" si="121"/>
         <v>#REF!</v>
       </c>
       <c r="BJ39" s="49" t="e">
@@ -15407,7 +15412,7 @@
         <v>#REF!</v>
       </c>
       <c r="BK39" s="2" t="e">
-        <f t="shared" ca="1" si="120"/>
+        <f t="shared" ca="1" si="122"/>
         <v>#REF!</v>
       </c>
       <c r="BL39" s="50"/>
@@ -15420,11 +15425,11 @@
         <v>#REF!</v>
       </c>
       <c r="BO39" s="52" t="e">
-        <f t="shared" ca="1" si="107"/>
+        <f t="shared" ca="1" si="109"/>
         <v>#REF!</v>
       </c>
       <c r="BP39" s="53" t="e">
-        <f t="shared" ca="1" si="108"/>
+        <f t="shared" ca="1" si="110"/>
         <v>#REF!</v>
       </c>
       <c r="BQ39" s="54" t="e">
@@ -15550,7 +15555,7 @@
       <c r="EE39" s="79"/>
       <c r="EF39" s="79"/>
     </row>
-    <row r="40" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A40" s="67"/>
       <c r="B40" s="67"/>
       <c r="C40" s="34"/>
@@ -15607,147 +15612,147 @@
         <v>#REF!</v>
       </c>
       <c r="BA40" s="60" t="e">
-        <f t="shared" ref="BA40:CJ40" ca="1" si="121">AVERAGE(BA37:BA39)</f>
+        <f t="shared" ref="BA40:CJ40" ca="1" si="123">AVERAGE(BA37:BA39)</f>
         <v>#REF!</v>
       </c>
       <c r="BB40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BC40" s="60">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>16700</v>
       </c>
       <c r="BD40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BE40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BF40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BG40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BH40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BI40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BJ40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BK40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BL40" s="60" t="e">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BM40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BN40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BO40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BP40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BQ40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BR40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BS40" s="60" t="e">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BT40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BU40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BV40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BW40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BX40" s="60" t="e">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BY40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="BZ40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="CA40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="CB40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="CC40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="CD40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="CE40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="CF40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="CG40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="CH40" s="60" t="e">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="CI40" s="60" t="e">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="CJ40" s="60" t="e">
-        <f t="shared" ca="1" si="121"/>
+        <f t="shared" ca="1" si="123"/>
         <v>#REF!</v>
       </c>
       <c r="CK40" s="71"/>
@@ -15799,7 +15804,7 @@
       <c r="EE40" s="71"/>
       <c r="EF40" s="71"/>
     </row>
-    <row r="41" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A41" s="71"/>
       <c r="B41" s="71"/>
       <c r="C41" s="71"/>
@@ -15871,7 +15876,7 @@
       <c r="EE41" s="71"/>
       <c r="EF41" s="71"/>
     </row>
-    <row r="42" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A42" s="71"/>
       <c r="B42" s="71"/>
       <c r="C42" s="71"/>
@@ -15943,7 +15948,7 @@
       <c r="EE42" s="71"/>
       <c r="EF42" s="71"/>
     </row>
-    <row r="43" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A43" s="71"/>
       <c r="B43" s="71"/>
       <c r="C43" s="71"/>
@@ -16015,7 +16020,7 @@
       <c r="EE43" s="71"/>
       <c r="EF43" s="71"/>
     </row>
-    <row r="44" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A44" s="42" t="s">
         <v>80</v>
       </c>
@@ -16089,7 +16094,7 @@
       <c r="EE44" s="71"/>
       <c r="EF44" s="71"/>
     </row>
-    <row r="45" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A45" s="42" t="s">
         <v>81</v>
       </c>
@@ -16173,7 +16178,7 @@
       <c r="EE45" s="71"/>
       <c r="EF45" s="71"/>
     </row>
-    <row r="46" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A46" s="71" t="s">
         <v>59</v>
       </c>
@@ -16181,8 +16186,8 @@
       <c r="C46" s="71">
         <v>9.9</v>
       </c>
-      <c r="D46" s="38">
-        <v>4148508.6304933508</v>
+      <c r="D46">
+        <v>3944087.25</v>
       </c>
       <c r="E46" s="37">
         <v>0</v>
@@ -16257,7 +16262,7 @@
       <c r="EE46" s="71"/>
       <c r="EF46" s="71"/>
     </row>
-    <row r="47" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A47" s="71" t="s">
         <v>58</v>
       </c>
@@ -16265,8 +16270,8 @@
       <c r="C47" s="71">
         <v>10.199999999999999</v>
       </c>
-      <c r="D47" s="38">
-        <v>3991683.2490576608</v>
+      <c r="D47">
+        <v>3925990.95</v>
       </c>
       <c r="E47" s="37">
         <v>0</v>
@@ -16336,7 +16341,7 @@
       <c r="EE47" s="71"/>
       <c r="EF47" s="71"/>
     </row>
-    <row r="48" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A48" s="71" t="s">
         <v>21</v>
       </c>
@@ -16420,7 +16425,7 @@
       <c r="EE48" s="71"/>
       <c r="EF48" s="71"/>
     </row>
-    <row r="49" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A49" s="71" t="s">
         <v>89</v>
       </c>
@@ -16504,7 +16509,7 @@
       <c r="EE49" s="71"/>
       <c r="EF49" s="71"/>
     </row>
-    <row r="50" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A50" s="71" t="s">
         <v>22</v>
       </c>
@@ -16588,7 +16593,7 @@
       <c r="EE50" s="71"/>
       <c r="EF50" s="71"/>
     </row>
-    <row r="51" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A51" s="71" t="s">
         <v>90</v>
       </c>
@@ -16672,7 +16677,7 @@
       <c r="EE51" s="71"/>
       <c r="EF51" s="71"/>
     </row>
-    <row r="52" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A52" s="71" t="s">
         <v>92</v>
       </c>
@@ -16752,7 +16757,7 @@
       <c r="EE52" s="71"/>
       <c r="EF52" s="71"/>
     </row>
-    <row r="53" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A53" s="71" t="s">
         <v>60</v>
       </c>
@@ -16827,7 +16832,7 @@
       <c r="EE53" s="71"/>
       <c r="EF53" s="71"/>
     </row>
-    <row r="54" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A54" s="71" t="s">
         <v>93</v>
       </c>
@@ -16902,7 +16907,7 @@
       <c r="EE54" s="71"/>
       <c r="EF54" s="71"/>
     </row>
-    <row r="55" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A55" s="71" t="s">
         <v>94</v>
       </c>
@@ -16977,7 +16982,7 @@
       <c r="EE55" s="71"/>
       <c r="EF55" s="71"/>
     </row>
-    <row r="56" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A56" s="71" t="s">
         <v>95</v>
       </c>
@@ -17047,7 +17052,7 @@
       <c r="EE56" s="71"/>
       <c r="EF56" s="71"/>
     </row>
-    <row r="57" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A57" s="71" t="s">
         <v>96</v>
       </c>
@@ -17122,7 +17127,7 @@
       <c r="EE57" s="71"/>
       <c r="EF57" s="71"/>
     </row>
-    <row r="58" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A58" s="71" t="s">
         <v>97</v>
       </c>
@@ -17197,7 +17202,7 @@
       <c r="EE58" s="71"/>
       <c r="EF58" s="71"/>
     </row>
-    <row r="59" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A59" s="71" t="s">
         <v>98</v>
       </c>
@@ -17272,7 +17277,7 @@
       <c r="EE59" s="71"/>
       <c r="EF59" s="71"/>
     </row>
-    <row r="60" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A60" s="71" t="s">
         <v>99</v>
       </c>
@@ -17345,7 +17350,7 @@
       <c r="EE60" s="71"/>
       <c r="EF60" s="71"/>
     </row>
-    <row r="61" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A61" s="71" t="s">
         <v>100</v>
       </c>
@@ -17416,7 +17421,7 @@
       <c r="EE61" s="71"/>
       <c r="EF61" s="71"/>
     </row>
-    <row r="63" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A63" s="40" t="s">
         <v>101</v>
       </c>
@@ -17493,7 +17498,7 @@
       <c r="EE63" s="71"/>
       <c r="EF63" s="71"/>
     </row>
-    <row r="64" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A64" s="40" t="s">
         <v>104</v>
       </c>
@@ -17566,7 +17571,7 @@
       <c r="EE64" s="71"/>
       <c r="EF64" s="71"/>
     </row>
-    <row r="65" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A65" s="40" t="s">
         <v>106</v>
       </c>
@@ -17643,7 +17648,7 @@
       <c r="EE65" s="71"/>
       <c r="EF65" s="71"/>
     </row>
-    <row r="66" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A66" s="40" t="s">
         <v>109</v>
       </c>
@@ -17716,7 +17721,7 @@
       <c r="EE66" s="71"/>
       <c r="EF66" s="71"/>
     </row>
-    <row r="67" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="40">
         <v>297.14999999999998</v>
@@ -17791,7 +17796,7 @@
       <c r="EE67" s="71"/>
       <c r="EF67" s="71"/>
     </row>
-    <row r="68" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:136" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>112</v>
       </c>
@@ -17864,7 +17869,7 @@
       <c r="EE68" s="71"/>
       <c r="EF68" s="71"/>
     </row>
-    <row r="69" spans="1:136" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:136" x14ac:dyDescent="0.3">
       <c r="CD69" s="71"/>
       <c r="CE69" s="71"/>
       <c r="CF69" s="71"/>
@@ -17923,6 +17928,120 @@
     </row>
   </sheetData>
   <mergeCells count="126">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="H3:H6"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="T3:T6"/>
+    <mergeCell ref="U3:U6"/>
+    <mergeCell ref="V3:V6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="AC3:AC6"/>
+    <mergeCell ref="AD3:AD6"/>
+    <mergeCell ref="AE3:AE6"/>
+    <mergeCell ref="AF3:AF6"/>
+    <mergeCell ref="AG3:AG6"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="W3:W6"/>
+    <mergeCell ref="X3:X6"/>
+    <mergeCell ref="Y3:Y6"/>
+    <mergeCell ref="Z3:Z6"/>
+    <mergeCell ref="AA3:AA6"/>
+    <mergeCell ref="AB3:AB6"/>
+    <mergeCell ref="AP3:AP6"/>
+    <mergeCell ref="AQ3:AQ6"/>
+    <mergeCell ref="AR3:AR6"/>
+    <mergeCell ref="AS3:AS6"/>
+    <mergeCell ref="AT3:AT6"/>
+    <mergeCell ref="AU3:AU6"/>
+    <mergeCell ref="AJ3:AJ6"/>
+    <mergeCell ref="AK3:AK6"/>
+    <mergeCell ref="AL3:AL6"/>
+    <mergeCell ref="AM3:AM6"/>
+    <mergeCell ref="AN3:AN6"/>
+    <mergeCell ref="AO3:AO6"/>
+    <mergeCell ref="BB3:BB6"/>
+    <mergeCell ref="BC3:BC6"/>
+    <mergeCell ref="BD3:BD6"/>
+    <mergeCell ref="BF3:BF6"/>
+    <mergeCell ref="BG3:BG6"/>
+    <mergeCell ref="BH3:BH6"/>
+    <mergeCell ref="AV3:AV6"/>
+    <mergeCell ref="AW3:AW6"/>
+    <mergeCell ref="AX3:AX6"/>
+    <mergeCell ref="AY3:AY6"/>
+    <mergeCell ref="AZ3:AZ6"/>
+    <mergeCell ref="BA3:BA6"/>
+    <mergeCell ref="BQ3:BQ6"/>
+    <mergeCell ref="BR3:BR6"/>
+    <mergeCell ref="BS3:BS6"/>
+    <mergeCell ref="BT3:BT6"/>
+    <mergeCell ref="BU3:BU6"/>
+    <mergeCell ref="BV3:BV6"/>
+    <mergeCell ref="BI3:BI6"/>
+    <mergeCell ref="BL3:BL6"/>
+    <mergeCell ref="BM3:BM6"/>
+    <mergeCell ref="BN3:BN6"/>
+    <mergeCell ref="BO3:BO6"/>
+    <mergeCell ref="BP3:BP6"/>
+    <mergeCell ref="CC3:CC6"/>
+    <mergeCell ref="CD3:CD6"/>
+    <mergeCell ref="CE3:CE6"/>
+    <mergeCell ref="CF3:CF6"/>
+    <mergeCell ref="CG3:CG6"/>
+    <mergeCell ref="CI3:CI6"/>
+    <mergeCell ref="BW3:BW6"/>
+    <mergeCell ref="BX3:BX6"/>
+    <mergeCell ref="BY3:BY6"/>
+    <mergeCell ref="BZ3:BZ6"/>
+    <mergeCell ref="CA3:CA6"/>
+    <mergeCell ref="CB3:CB6"/>
+    <mergeCell ref="CQ3:CQ6"/>
+    <mergeCell ref="CR3:CR6"/>
+    <mergeCell ref="CS3:CS6"/>
+    <mergeCell ref="CT3:CT6"/>
+    <mergeCell ref="CU3:CU6"/>
+    <mergeCell ref="CV3:CV6"/>
+    <mergeCell ref="CK3:CK6"/>
+    <mergeCell ref="CL3:CL6"/>
+    <mergeCell ref="CM3:CM6"/>
+    <mergeCell ref="CN3:CN6"/>
+    <mergeCell ref="CO3:CO6"/>
+    <mergeCell ref="CP3:CP6"/>
+    <mergeCell ref="DC3:DC6"/>
+    <mergeCell ref="DD3:DD6"/>
+    <mergeCell ref="DE3:DE6"/>
+    <mergeCell ref="DF3:DF6"/>
+    <mergeCell ref="DG3:DG6"/>
+    <mergeCell ref="DH3:DH6"/>
+    <mergeCell ref="CW3:CW6"/>
+    <mergeCell ref="CX3:CX6"/>
+    <mergeCell ref="CY3:CY6"/>
+    <mergeCell ref="CZ3:CZ6"/>
+    <mergeCell ref="DA3:DA6"/>
+    <mergeCell ref="DB3:DB6"/>
+    <mergeCell ref="DO3:DO6"/>
+    <mergeCell ref="DP3:DP6"/>
+    <mergeCell ref="DQ3:DQ6"/>
+    <mergeCell ref="DR3:DR6"/>
+    <mergeCell ref="DS3:DS6"/>
+    <mergeCell ref="DT3:DT6"/>
+    <mergeCell ref="DI3:DI6"/>
+    <mergeCell ref="DJ3:DJ6"/>
+    <mergeCell ref="DK3:DK6"/>
+    <mergeCell ref="DL3:DL6"/>
+    <mergeCell ref="DM3:DM6"/>
+    <mergeCell ref="DN3:DN6"/>
     <mergeCell ref="EA3:EA6"/>
     <mergeCell ref="EB3:EB6"/>
     <mergeCell ref="EC3:EC6"/>
@@ -17935,120 +18054,6 @@
     <mergeCell ref="DX3:DX6"/>
     <mergeCell ref="DY3:DY6"/>
     <mergeCell ref="DZ3:DZ6"/>
-    <mergeCell ref="DO3:DO6"/>
-    <mergeCell ref="DP3:DP6"/>
-    <mergeCell ref="DQ3:DQ6"/>
-    <mergeCell ref="DR3:DR6"/>
-    <mergeCell ref="DS3:DS6"/>
-    <mergeCell ref="DT3:DT6"/>
-    <mergeCell ref="DI3:DI6"/>
-    <mergeCell ref="DJ3:DJ6"/>
-    <mergeCell ref="DK3:DK6"/>
-    <mergeCell ref="DL3:DL6"/>
-    <mergeCell ref="DM3:DM6"/>
-    <mergeCell ref="DN3:DN6"/>
-    <mergeCell ref="DC3:DC6"/>
-    <mergeCell ref="DD3:DD6"/>
-    <mergeCell ref="DE3:DE6"/>
-    <mergeCell ref="DF3:DF6"/>
-    <mergeCell ref="DG3:DG6"/>
-    <mergeCell ref="DH3:DH6"/>
-    <mergeCell ref="CW3:CW6"/>
-    <mergeCell ref="CX3:CX6"/>
-    <mergeCell ref="CY3:CY6"/>
-    <mergeCell ref="CZ3:CZ6"/>
-    <mergeCell ref="DA3:DA6"/>
-    <mergeCell ref="DB3:DB6"/>
-    <mergeCell ref="CQ3:CQ6"/>
-    <mergeCell ref="CR3:CR6"/>
-    <mergeCell ref="CS3:CS6"/>
-    <mergeCell ref="CT3:CT6"/>
-    <mergeCell ref="CU3:CU6"/>
-    <mergeCell ref="CV3:CV6"/>
-    <mergeCell ref="CK3:CK6"/>
-    <mergeCell ref="CL3:CL6"/>
-    <mergeCell ref="CM3:CM6"/>
-    <mergeCell ref="CN3:CN6"/>
-    <mergeCell ref="CO3:CO6"/>
-    <mergeCell ref="CP3:CP6"/>
-    <mergeCell ref="CC3:CC6"/>
-    <mergeCell ref="CD3:CD6"/>
-    <mergeCell ref="CE3:CE6"/>
-    <mergeCell ref="CF3:CF6"/>
-    <mergeCell ref="CG3:CG6"/>
-    <mergeCell ref="CI3:CI6"/>
-    <mergeCell ref="BW3:BW6"/>
-    <mergeCell ref="BX3:BX6"/>
-    <mergeCell ref="BY3:BY6"/>
-    <mergeCell ref="BZ3:BZ6"/>
-    <mergeCell ref="CA3:CA6"/>
-    <mergeCell ref="CB3:CB6"/>
-    <mergeCell ref="BQ3:BQ6"/>
-    <mergeCell ref="BR3:BR6"/>
-    <mergeCell ref="BS3:BS6"/>
-    <mergeCell ref="BT3:BT6"/>
-    <mergeCell ref="BU3:BU6"/>
-    <mergeCell ref="BV3:BV6"/>
-    <mergeCell ref="BI3:BI6"/>
-    <mergeCell ref="BL3:BL6"/>
-    <mergeCell ref="BM3:BM6"/>
-    <mergeCell ref="BN3:BN6"/>
-    <mergeCell ref="BO3:BO6"/>
-    <mergeCell ref="BP3:BP6"/>
-    <mergeCell ref="BB3:BB6"/>
-    <mergeCell ref="BC3:BC6"/>
-    <mergeCell ref="BD3:BD6"/>
-    <mergeCell ref="BF3:BF6"/>
-    <mergeCell ref="BG3:BG6"/>
-    <mergeCell ref="BH3:BH6"/>
-    <mergeCell ref="AV3:AV6"/>
-    <mergeCell ref="AW3:AW6"/>
-    <mergeCell ref="AX3:AX6"/>
-    <mergeCell ref="AY3:AY6"/>
-    <mergeCell ref="AZ3:AZ6"/>
-    <mergeCell ref="BA3:BA6"/>
-    <mergeCell ref="AP3:AP6"/>
-    <mergeCell ref="AQ3:AQ6"/>
-    <mergeCell ref="AR3:AR6"/>
-    <mergeCell ref="AS3:AS6"/>
-    <mergeCell ref="AT3:AT6"/>
-    <mergeCell ref="AU3:AU6"/>
-    <mergeCell ref="AJ3:AJ6"/>
-    <mergeCell ref="AK3:AK6"/>
-    <mergeCell ref="AL3:AL6"/>
-    <mergeCell ref="AM3:AM6"/>
-    <mergeCell ref="AN3:AN6"/>
-    <mergeCell ref="AO3:AO6"/>
-    <mergeCell ref="AC3:AC6"/>
-    <mergeCell ref="AD3:AD6"/>
-    <mergeCell ref="AE3:AE6"/>
-    <mergeCell ref="AF3:AF6"/>
-    <mergeCell ref="AG3:AG6"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="W3:W6"/>
-    <mergeCell ref="X3:X6"/>
-    <mergeCell ref="Y3:Y6"/>
-    <mergeCell ref="Z3:Z6"/>
-    <mergeCell ref="AA3:AA6"/>
-    <mergeCell ref="AB3:AB6"/>
-    <mergeCell ref="T3:T6"/>
-    <mergeCell ref="U3:U6"/>
-    <mergeCell ref="V3:V6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="H3:H6"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="S3:S6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -18057,7 +18062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:T27"/>
   <sheetViews>
@@ -18065,22 +18070,22 @@
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:20" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B3" s="79" t="s">
         <v>15</v>
       </c>
@@ -18130,7 +18135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -18186,7 +18191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -18244,7 +18249,7 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -18300,17 +18305,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -18379,7 +18384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -18448,12 +18453,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" s="79" t="s">
         <v>15</v>
       </c>
@@ -18503,7 +18508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -18565,7 +18570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -18627,7 +18632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -18689,17 +18694,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -18768,7 +18773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -18837,12 +18842,12 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="79" t="s">
         <v>15</v>
       </c>
@@ -18859,7 +18864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>B21</f>
         <v>583611.46</v>
